--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719464027</v>
+        <v>0.9717494206864621</v>
       </c>
       <c r="G2">
-        <v>-0.7350821582185282</v>
+        <v>-1.682295576140548</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.711420631642272</v>
+        <v>0.4711324624965033</v>
       </c>
       <c r="G3">
-        <v>-7.271100266470583</v>
+        <v>-23.17979850064455</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124704010371</v>
+        <v>0.2355662312459422</v>
       </c>
       <c r="G4">
-        <v>-2.952918817266612</v>
+        <v>-23.17979849566913</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -598,22 +598,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265500.66581</v>
+        <v>3.458697219799992</v>
       </c>
       <c r="C5">
-        <v>1100000024083.695</v>
+        <v>119.8127862538161</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142516</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416214</v>
       </c>
       <c r="F5">
-        <v>0.06018306202382928</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000001066059</v>
+        <v>71.78826692943716</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023643972</v>
+        <v>0.2355662312500086</v>
       </c>
       <c r="G6">
-        <v>-9.67301115741219E-09</v>
+        <v>-23.17979849110227</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538982531</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.028134418459593</v>
+        <v>0.9717494206873251</v>
       </c>
       <c r="P2">
-        <v>1.077959469435821</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>28.17453160928734</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-90.69428644301162</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>151.5326674576811</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672167839</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.7311545120199407</v>
+        <v>0.4711324625045253</v>
       </c>
       <c r="P3">
-        <v>0.98507869969647</v>
+        <v>0.8867526821368239</v>
       </c>
       <c r="Q3">
-        <v>19.99748951701672</v>
+        <v>11.70358232174647</v>
       </c>
       <c r="R3">
-        <v>-96.70515797813935</v>
+        <v>-113.1797985005416</v>
       </c>
       <c r="S3">
-        <v>158.4629648481379</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660679844</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.6093826337930718</v>
+        <v>0.235566231255748</v>
       </c>
       <c r="P4">
-        <v>0.9943261549536414</v>
+        <v>0.9127115190423143</v>
       </c>
       <c r="Q4">
-        <v>17.35880671887115</v>
+        <v>6.185827764751329</v>
       </c>
       <c r="R4">
-        <v>-92.6765358435927</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>162.2051963356334</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="D5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="G5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -917,34 +917,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.9713352289731567</v>
+        <v>0.952627964804328</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289693503</v>
+        <v>0.952627964806171</v>
       </c>
       <c r="Q5">
-        <v>-1.951184347745243E-10</v>
+        <v>-1.467134350794419E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997976</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023881558</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>1.100000023667782</v>
+        <v>0.2355662312598143</v>
       </c>
       <c r="P6">
-        <v>1.100000023726079</v>
+        <v>0.9127115190507492</v>
       </c>
       <c r="Q6">
-        <v>29.99999999375012</v>
+        <v>6.185827765114881</v>
       </c>
       <c r="R6">
-        <v>-90.00000000916758</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>150.0000000019271</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023843703</v>
+        <v>1.097913442505985</v>
       </c>
       <c r="O2">
-        <v>1.10000002383721</v>
+        <v>1.038199430945095</v>
       </c>
       <c r="P2">
-        <v>1.100000023837856</v>
+        <v>1.071688005270969</v>
       </c>
       <c r="Q2">
-        <v>29.99999999980454</v>
+        <v>28.20385326919863</v>
       </c>
       <c r="R2">
-        <v>-90.00000000034704</v>
+        <v>-91.64835645787062</v>
       </c>
       <c r="S2">
-        <v>150.0000000000143</v>
+        <v>151.0415426789638</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023852572</v>
+        <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>1.100000023819356</v>
+        <v>0.8010472659662119</v>
       </c>
       <c r="P3">
-        <v>1.100000023820757</v>
+        <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>29.99999999900674</v>
+        <v>20.60981428630314</v>
       </c>
       <c r="R3">
-        <v>-90.00000000190305</v>
+        <v>-102.5423331070932</v>
       </c>
       <c r="S3">
-        <v>150.0000000000429</v>
+        <v>155.6939771729496</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023851363</v>
+        <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>1.100000023805589</v>
+        <v>0.6778116409140659</v>
       </c>
       <c r="P4">
-        <v>1.100000023815354</v>
+        <v>0.9365579876248714</v>
       </c>
       <c r="Q4">
-        <v>29.99999999862454</v>
+        <v>17.79481892925099</v>
       </c>
       <c r="R4">
-        <v>-90.00000000215981</v>
+        <v>-102.9968045963019</v>
       </c>
       <c r="S4">
-        <v>150.0000000002899</v>
+        <v>159.3539935570792</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.111269904411659</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="D5">
-        <v>3.111269904411659</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.92585033667305</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="G5">
-        <v>35.92585033667305</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1284,34 +1284,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>1.100000023859658</v>
+        <v>1.053149057115868</v>
       </c>
       <c r="O5">
-        <v>1.100000023755553</v>
+        <v>0.5546376111780769</v>
       </c>
       <c r="P5">
-        <v>1.100000023783448</v>
+        <v>0.9271939290302874</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.82588342075279</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-103.653192268985</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>163.1035456589491</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.6778116409156865</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9365579876299002</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>17.79481892942268</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-102.9968045954625</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>159.3539935570705</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023843703</v>
+        <v>1.097913442505985</v>
       </c>
       <c r="O2">
-        <v>1.10000002383721</v>
+        <v>1.038199430945095</v>
       </c>
       <c r="P2">
-        <v>1.100000023837856</v>
+        <v>1.071688005270969</v>
       </c>
       <c r="Q2">
-        <v>29.99999999980454</v>
+        <v>28.20385326919863</v>
       </c>
       <c r="R2">
-        <v>-90.00000000034704</v>
+        <v>-91.64835645787062</v>
       </c>
       <c r="S2">
-        <v>150.0000000000143</v>
+        <v>151.0415426789638</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023852572</v>
+        <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>1.100000023819356</v>
+        <v>0.8010472659662119</v>
       </c>
       <c r="P3">
-        <v>1.100000023820757</v>
+        <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>29.99999999900674</v>
+        <v>20.60981428630314</v>
       </c>
       <c r="R3">
-        <v>-90.00000000190305</v>
+        <v>-102.5423331070932</v>
       </c>
       <c r="S3">
-        <v>150.0000000000429</v>
+        <v>155.6939771729496</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023851363</v>
+        <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>1.100000023805589</v>
+        <v>0.6778116409140659</v>
       </c>
       <c r="P4">
-        <v>1.100000023815354</v>
+        <v>0.9365579876248714</v>
       </c>
       <c r="Q4">
-        <v>29.99999999862454</v>
+        <v>17.79481892925099</v>
       </c>
       <c r="R4">
-        <v>-90.00000000215981</v>
+        <v>-102.9968045963019</v>
       </c>
       <c r="S4">
-        <v>150.0000000002899</v>
+        <v>159.3539935570792</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.111269904411659</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="D5">
-        <v>3.111269904411659</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.92585033667305</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="G5">
-        <v>35.92585033667305</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1651,34 +1651,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>1.100000023859658</v>
+        <v>1.053149057115868</v>
       </c>
       <c r="O5">
-        <v>1.100000023755553</v>
+        <v>0.5546376111780769</v>
       </c>
       <c r="P5">
-        <v>1.100000023783448</v>
+        <v>0.9271939290302874</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.82588342075279</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-103.653192268985</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>163.1035456589491</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.6778116409156865</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9365579876299002</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>17.79481892942268</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-102.9968045954625</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>159.3539935570705</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257846626</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.9364965948364646</v>
+        <v>0.8925077601169356</v>
       </c>
       <c r="P2">
-        <v>0.9748156030546428</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
-        <v>28.05924688090109</v>
+        <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-91.44625255040445</v>
+        <v>-93.21942694842282</v>
       </c>
       <c r="S2">
-        <v>151.3289570018882</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624353952</v>
+        <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.7097178126688017</v>
+        <v>0.5561090193399914</v>
       </c>
       <c r="P3">
-        <v>0.8774140245115074</v>
+        <v>0.7706324860879302</v>
       </c>
       <c r="Q3">
-        <v>20.55281704292224</v>
+        <v>13.65879647337782</v>
       </c>
       <c r="R3">
-        <v>-100.5742849467501</v>
+        <v>-118.993657238633</v>
       </c>
       <c r="S3">
-        <v>156.7312439676216</v>
+        <v>161.6033321423728</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644046589</v>
+        <v>0.9413015024173007</v>
       </c>
       <c r="O4">
-        <v>0.5675512578940197</v>
+        <v>0.2780545096809834</v>
       </c>
       <c r="P4">
-        <v>0.8972376977535629</v>
+        <v>0.8078419627250765</v>
       </c>
       <c r="Q4">
-        <v>17.5846073681717</v>
+        <v>7.422585260182365</v>
       </c>
       <c r="R4">
-        <v>-94.38698935491654</v>
+        <v>-118.9936572335705</v>
       </c>
       <c r="S4">
-        <v>161.6677107612723</v>
+        <v>171.3424305981766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="D5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002433.139</v>
+        <v>27.68559707302024</v>
       </c>
       <c r="G5">
-        <v>294344002433.139</v>
+        <v>27.68559707302024</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2018,34 +2018,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>0.8830320072019124</v>
+        <v>0.8660254037887607</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071987626</v>
+        <v>0.8660254037891284</v>
       </c>
       <c r="Q5">
-        <v>-1.776761622216262E-10</v>
+        <v>1.933770379057596E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999999815</v>
+        <v>179.9999999997987</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000046745</v>
+        <v>0.9413015024105789</v>
       </c>
       <c r="O6">
-        <v>0.9999999999380709</v>
+        <v>0.2780545096894999</v>
       </c>
       <c r="P6">
-        <v>0.9999999999261893</v>
+        <v>0.8078419627343745</v>
       </c>
       <c r="Q6">
-        <v>29.99999999655748</v>
+        <v>7.422585260806285</v>
       </c>
       <c r="R6">
-        <v>-90.00000000781864</v>
+        <v>-118.9936572288335</v>
       </c>
       <c r="S6">
-        <v>149.9999999997545</v>
+        <v>171.3424305976101</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257846626</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.9364965948364646</v>
+        <v>0.8925077601169356</v>
       </c>
       <c r="P2">
-        <v>0.9748156030546428</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
-        <v>28.05924688090109</v>
+        <v>26.56536361475426</v>
       </c>
       <c r="R2">
-        <v>-91.44625255040445</v>
+        <v>-93.21942694842282</v>
       </c>
       <c r="S2">
-        <v>151.3289570018882</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624353952</v>
+        <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.7097178126688017</v>
+        <v>0.5561090193399914</v>
       </c>
       <c r="P3">
-        <v>0.8774140245115074</v>
+        <v>0.7706324860879302</v>
       </c>
       <c r="Q3">
-        <v>20.55281704292224</v>
+        <v>13.65879647337782</v>
       </c>
       <c r="R3">
-        <v>-100.5742849467501</v>
+        <v>-118.993657238633</v>
       </c>
       <c r="S3">
-        <v>156.7312439676216</v>
+        <v>161.6033321423728</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644046589</v>
+        <v>0.9413015024173007</v>
       </c>
       <c r="O4">
-        <v>0.5675512578940197</v>
+        <v>0.2780545096809834</v>
       </c>
       <c r="P4">
-        <v>0.8972376977535629</v>
+        <v>0.8078419627250765</v>
       </c>
       <c r="Q4">
-        <v>17.5846073681717</v>
+        <v>7.422585260182365</v>
       </c>
       <c r="R4">
-        <v>-94.38698935491654</v>
+        <v>-118.9936572335705</v>
       </c>
       <c r="S4">
-        <v>161.6677107612723</v>
+        <v>171.3424305981766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="D5">
-        <v>25490938355.8687</v>
+        <v>2.397643038417563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002433.139</v>
+        <v>27.68559707302024</v>
       </c>
       <c r="G5">
-        <v>294344002433.139</v>
+        <v>27.68559707302024</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2385,34 +2385,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>0.8830320072019124</v>
+        <v>0.8660254037887607</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071987626</v>
+        <v>0.8660254037891284</v>
       </c>
       <c r="Q5">
-        <v>-1.776761622216262E-10</v>
+        <v>1.933770379057596E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.999999999815</v>
+        <v>179.9999999997987</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000046745</v>
+        <v>0.9413015024105789</v>
       </c>
       <c r="O6">
-        <v>0.9999999999380709</v>
+        <v>0.2780545096894999</v>
       </c>
       <c r="P6">
-        <v>0.9999999999261893</v>
+        <v>0.8078419627343745</v>
       </c>
       <c r="Q6">
-        <v>29.99999999655748</v>
+        <v>7.422585260806285</v>
       </c>
       <c r="R6">
-        <v>-90.00000000781864</v>
+        <v>-118.9936572288335</v>
       </c>
       <c r="S6">
-        <v>149.9999999997545</v>
+        <v>171.3424305976101</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000002324</v>
+        <v>1.001331894669825</v>
       </c>
       <c r="O2">
-        <v>0.999999999996885</v>
+        <v>0.9447857350273364</v>
       </c>
       <c r="P2">
-        <v>0.9999999999962661</v>
+        <v>0.9714136499339263</v>
       </c>
       <c r="Q2">
-        <v>29.99999999982096</v>
+        <v>28.12895287789162</v>
       </c>
       <c r="R2">
-        <v>-90.00000000039505</v>
+        <v>-92.06695043634009</v>
       </c>
       <c r="S2">
-        <v>149.9999999999755</v>
+        <v>150.9234419840479</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000012009</v>
+        <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.9999999999866982</v>
+        <v>0.7601105130307678</v>
       </c>
       <c r="P3">
-        <v>0.9999999999820391</v>
+        <v>0.8600596939664565</v>
       </c>
       <c r="Q3">
-        <v>29.99999999917301</v>
+        <v>21.1397320822947</v>
       </c>
       <c r="R3">
-        <v>-90.00000000196763</v>
+        <v>-103.5956248909722</v>
       </c>
       <c r="S3">
-        <v>149.9999999998513</v>
+        <v>154.5634239344227</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000000000009397</v>
+        <v>0.9736886975942206</v>
       </c>
       <c r="O4">
-        <v>0.9999999999694131</v>
+        <v>0.6105905023675668</v>
       </c>
       <c r="P4">
-        <v>0.9999999999763129</v>
+        <v>0.8592675374866851</v>
       </c>
       <c r="Q4">
-        <v>29.99999999867996</v>
+        <v>17.89765854075593</v>
       </c>
       <c r="R4">
-        <v>-90.00000000218134</v>
+        <v>-101.4382340426271</v>
       </c>
       <c r="S4">
-        <v>150.000000000226</v>
+        <v>159.6202630074795</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2731,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.828427124524274</v>
+        <v>1.30813419217512</v>
       </c>
       <c r="D5">
-        <v>2.828427124524274</v>
+        <v>1.30813419217512</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.65986323454657</v>
+        <v>15.10503255976918</v>
       </c>
       <c r="G5">
-        <v>32.65986323454657</v>
+        <v>15.10503255976918</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2752,34 +2752,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>1.000000000016182</v>
+        <v>0.9265339329004404</v>
       </c>
       <c r="O5">
-        <v>0.9999999999215406</v>
+        <v>0.4624952789982433</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468998</v>
+        <v>0.8651507456751668</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.31307774380568</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-97.89113682127689</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>164.6472678684481</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.973688697590931</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6105905023744959</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8592675374928743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>17.89765854109857</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-101.4382340415536</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>159.6202630073105</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000002324</v>
+        <v>1.001331894669825</v>
       </c>
       <c r="O2">
-        <v>0.999999999996885</v>
+        <v>0.9447857350273364</v>
       </c>
       <c r="P2">
-        <v>0.9999999999962661</v>
+        <v>0.9714136499339263</v>
       </c>
       <c r="Q2">
-        <v>29.99999999982096</v>
+        <v>28.12895287789162</v>
       </c>
       <c r="R2">
-        <v>-90.00000000039505</v>
+        <v>-92.06695043634009</v>
       </c>
       <c r="S2">
-        <v>149.9999999999755</v>
+        <v>150.9234419840479</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000012009</v>
+        <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.9999999999866982</v>
+        <v>0.7601105130307678</v>
       </c>
       <c r="P3">
-        <v>0.9999999999820391</v>
+        <v>0.8600596939664565</v>
       </c>
       <c r="Q3">
-        <v>29.99999999917301</v>
+        <v>21.1397320822947</v>
       </c>
       <c r="R3">
-        <v>-90.00000000196763</v>
+        <v>-103.5956248909722</v>
       </c>
       <c r="S3">
-        <v>149.9999999998513</v>
+        <v>154.5634239344227</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000000000009397</v>
+        <v>0.9736886975942206</v>
       </c>
       <c r="O4">
-        <v>0.9999999999694131</v>
+        <v>0.6105905023675668</v>
       </c>
       <c r="P4">
-        <v>0.9999999999763129</v>
+        <v>0.8592675374866851</v>
       </c>
       <c r="Q4">
-        <v>29.99999999867996</v>
+        <v>17.89765854075593</v>
       </c>
       <c r="R4">
-        <v>-90.00000000218134</v>
+        <v>-101.4382340426271</v>
       </c>
       <c r="S4">
-        <v>150.000000000226</v>
+        <v>159.6202630074795</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3098,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.828427124524274</v>
+        <v>1.30813419217512</v>
       </c>
       <c r="D5">
-        <v>2.828427124524274</v>
+        <v>1.30813419217512</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.65986323454657</v>
+        <v>15.10503255976918</v>
       </c>
       <c r="G5">
-        <v>32.65986323454657</v>
+        <v>15.10503255976918</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3119,34 +3119,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>1.000000000016182</v>
+        <v>0.9265339329004404</v>
       </c>
       <c r="O5">
-        <v>0.9999999999215406</v>
+        <v>0.4624952789982433</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468998</v>
+        <v>0.8651507456751668</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.31307774380568</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-97.89113682127689</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>164.6472678684481</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.973688697590931</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6105905023744959</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8592675374928743</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>17.89765854109857</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-101.4382340415536</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>159.6202630073105</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526496309</v>
+        <v>0.9917389427111208</v>
       </c>
       <c r="O2">
-        <v>1.096025874296523</v>
+        <v>1.100000023847089</v>
       </c>
       <c r="P2">
-        <v>1.064011720995921</v>
+        <v>1.018773429518528</v>
       </c>
       <c r="Q2">
-        <v>30.75110892017325</v>
+        <v>31.98313762604858</v>
       </c>
       <c r="R2">
-        <v>-90.03597890936119</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S2">
-        <v>148.5090295579122</v>
+        <v>145.6590995766424</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873596196081</v>
+        <v>0.5406599594186527</v>
       </c>
       <c r="O3">
-        <v>1.079357280168599</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P3">
-        <v>0.930128008574628</v>
+        <v>0.8035144867332755</v>
       </c>
       <c r="Q3">
-        <v>33.98935893683884</v>
+        <v>46.07338582619843</v>
       </c>
       <c r="R3">
-        <v>-90.25035334542559</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>140.3871932169079</v>
+        <v>117.8263709265779</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421989291678</v>
+        <v>0.5057548966381509</v>
       </c>
       <c r="O4">
-        <v>1.072860426775365</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P4">
-        <v>0.8501720954433891</v>
+        <v>0.6576086866432962</v>
       </c>
       <c r="Q4">
-        <v>38.74753265938744</v>
+        <v>68.23456708388065</v>
       </c>
       <c r="R4">
-        <v>-90.0839562276707</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S4">
-        <v>139.3155868743796</v>
+        <v>106.5696916197919</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265498.5349</v>
+        <v>5.188045829440219</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674669.9594</v>
+        <v>59.90639312390852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3498,37 +3498,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075634</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701416201</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171094</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>0.5832496257687363</v>
+        <v>0.5500000119532442</v>
       </c>
       <c r="O5">
-        <v>1.039230824733427</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P5">
-        <v>0.5832496257219597</v>
+        <v>0.5500000118973561</v>
       </c>
       <c r="Q5">
-        <v>62.98619605043623</v>
+        <v>89.99999999448269</v>
       </c>
       <c r="R5">
-        <v>-89.99999999940592</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S5">
-        <v>117.0138039530801</v>
+        <v>90.00000000551005</v>
       </c>
       <c r="T5">
-        <v>31754265498.5349</v>
+        <v>5.188045829440219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023678622</v>
+        <v>0.5057548966543197</v>
       </c>
       <c r="O6">
-        <v>1.100000023818394</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P6">
-        <v>1.100000023780279</v>
+        <v>0.6576086866330461</v>
       </c>
       <c r="Q6">
-        <v>29.99999999758127</v>
+        <v>68.23456708343635</v>
       </c>
       <c r="R6">
-        <v>-90.00000000050301</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>149.9999999922269</v>
+        <v>106.5696916209337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526496309</v>
+        <v>0.9917389427111208</v>
       </c>
       <c r="O2">
-        <v>1.096025874296523</v>
+        <v>1.100000023847089</v>
       </c>
       <c r="P2">
-        <v>1.064011720995921</v>
+        <v>1.018773429518528</v>
       </c>
       <c r="Q2">
-        <v>30.75110892017325</v>
+        <v>31.98313762604858</v>
       </c>
       <c r="R2">
-        <v>-90.03597890936119</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S2">
-        <v>148.5090295579122</v>
+        <v>145.6590995766424</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873596196081</v>
+        <v>0.5406599594186527</v>
       </c>
       <c r="O3">
-        <v>1.079357280168599</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P3">
-        <v>0.930128008574628</v>
+        <v>0.8035144867332755</v>
       </c>
       <c r="Q3">
-        <v>33.98935893683884</v>
+        <v>46.07338582619843</v>
       </c>
       <c r="R3">
-        <v>-90.25035334542559</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>140.3871932169079</v>
+        <v>117.8263709265779</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421989291678</v>
+        <v>0.5057548966381509</v>
       </c>
       <c r="O4">
-        <v>1.072860426775365</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P4">
-        <v>0.8501720954433891</v>
+        <v>0.6576086866432962</v>
       </c>
       <c r="Q4">
-        <v>38.74753265938744</v>
+        <v>68.23456708388065</v>
       </c>
       <c r="R4">
-        <v>-90.0839562276707</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S4">
-        <v>139.3155868743796</v>
+        <v>106.5696916197919</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265498.5349</v>
+        <v>5.188045829440219</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674669.9594</v>
+        <v>59.90639312390852</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3883,37 +3883,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075634</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701416201</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171094</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>0.5832496257687363</v>
+        <v>0.5500000119532442</v>
       </c>
       <c r="O5">
-        <v>1.039230824733427</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P5">
-        <v>0.5832496257219597</v>
+        <v>0.5500000118973561</v>
       </c>
       <c r="Q5">
-        <v>62.98619605043623</v>
+        <v>89.99999999448269</v>
       </c>
       <c r="R5">
-        <v>-89.99999999940592</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S5">
-        <v>117.0138039530801</v>
+        <v>90.00000000551005</v>
       </c>
       <c r="T5">
-        <v>31754265498.5349</v>
+        <v>5.188045829440219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023678622</v>
+        <v>0.5057548966543197</v>
       </c>
       <c r="O6">
-        <v>1.100000023818394</v>
+        <v>1.1000000238506</v>
       </c>
       <c r="P6">
-        <v>1.100000023780279</v>
+        <v>0.6576086866330461</v>
       </c>
       <c r="Q6">
-        <v>29.99999999758127</v>
+        <v>68.23456708343635</v>
       </c>
       <c r="R6">
-        <v>-90.00000000050301</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>149.9999999922269</v>
+        <v>106.5696916209337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.07005338699304</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086480205218673</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93022374263624</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5977988866262</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9434172310242592</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.044661961491181</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.07850908506786</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>142.115867082149</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8985690160381109</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>1.001074895726564</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.90271553726539</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.3701275405207</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>15.73319923289742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4268,37 +4268,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075634</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701416201</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171094</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8547266890462561</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.958501179724831</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.9162846990792</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.467406117994</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8985690160412705</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>1.001074895724771</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>30.90271553745785</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.3701275407487</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719464027</v>
+        <v>0.9717494206864621</v>
       </c>
       <c r="G2">
-        <v>-0.7350821582185282</v>
+        <v>-1.682295576140548</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.711420631642272</v>
+        <v>0.4711324624965033</v>
       </c>
       <c r="G3">
-        <v>-7.271100266470583</v>
+        <v>-23.17979850064455</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124704010371</v>
+        <v>0.2355662312459422</v>
       </c>
       <c r="G4">
-        <v>-2.952918817266612</v>
+        <v>-23.17979849566913</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4473,22 +4473,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265500.66581</v>
+        <v>3.458697219799992</v>
       </c>
       <c r="C5">
-        <v>1100000024083.695</v>
+        <v>119.8127862538161</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142516</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416214</v>
       </c>
       <c r="F5">
-        <v>0.06018306202382928</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000001066059</v>
+        <v>71.78826692943716</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023643972</v>
+        <v>0.2355662312500086</v>
       </c>
       <c r="G6">
-        <v>-9.67301115741219E-09</v>
+        <v>-23.17979849110227</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.07005338699304</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086480205218673</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93022374263624</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5977988866262</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9434172310242592</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.044661961491181</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.07850908506786</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>142.115867082149</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8985690160381109</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>1.001074895726564</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.90271553726539</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.3701275405207</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>15.73319923289742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4804,37 +4804,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927075634</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701416201</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927171094</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416072</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8547266890462561</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.958501179724831</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.9162846990792</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.467406117994</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.362535021849101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8985690160412705</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845109</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>1.001074895724771</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>30.90271553745785</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.3701275407487</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095381288</v>
+        <v>0.8966713734871343</v>
       </c>
       <c r="O2">
-        <v>0.9964761462513788</v>
+        <v>0.9999999999961731</v>
       </c>
       <c r="P2">
-        <v>0.9719096284646722</v>
+        <v>0.9438408768220407</v>
       </c>
       <c r="Q2">
-        <v>30.3166998235019</v>
+        <v>30.61107002287189</v>
       </c>
       <c r="R2">
-        <v>-90.07508069017868</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.1402189969705</v>
+        <v>144.8484486356858</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960644175</v>
+        <v>0.4985008017277145</v>
       </c>
       <c r="O3">
-        <v>0.9833239238224899</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P3">
-        <v>0.8842484437032631</v>
+        <v>0.8458030579082587</v>
       </c>
       <c r="Q3">
-        <v>31.07876276226737</v>
+        <v>32.32516518541934</v>
       </c>
       <c r="R3">
-        <v>-90.41924373722819</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S3">
-        <v>139.6021034742137</v>
+        <v>119.8706392621925</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156661259</v>
+        <v>0.4373394470353294</v>
       </c>
       <c r="O4">
-        <v>0.9760205715775576</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P4">
-        <v>0.7858310070177521</v>
+        <v>0.6516944633876428</v>
       </c>
       <c r="Q4">
-        <v>37.72192694394271</v>
+        <v>61.20994934641837</v>
       </c>
       <c r="R4">
-        <v>-90.14079250129508</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S4">
-        <v>139.0387173175934</v>
+        <v>108.8561569746339</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773523</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333358.8807</v>
+        <v>47.95286076627841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5189,37 +5189,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088273</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851245</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088117</v>
       </c>
       <c r="N5">
-        <v>0.5302269210086259</v>
+        <v>0.500000000018031</v>
       </c>
       <c r="O5">
-        <v>0.944755274725201</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P5">
-        <v>0.5302269209648947</v>
+        <v>0.4999999999834786</v>
       </c>
       <c r="Q5">
-        <v>62.98619605275796</v>
+        <v>89.99999999549728</v>
       </c>
       <c r="R5">
-        <v>-89.99999999945889</v>
+        <v>-89.99999999999662</v>
       </c>
       <c r="S5">
-        <v>117.0138039507189</v>
+        <v>90.00000000449491</v>
       </c>
       <c r="T5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999205684</v>
+        <v>0.4373394470552117</v>
       </c>
       <c r="O6">
-        <v>0.9999999999916224</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P6">
-        <v>0.999999999999391</v>
+        <v>0.6516944633797506</v>
       </c>
       <c r="Q6">
-        <v>29.99999999670223</v>
+        <v>61.20994934544287</v>
       </c>
       <c r="R6">
-        <v>-90.0000000004285</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S6">
-        <v>149.9999999946039</v>
+        <v>108.8561569763667</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095381288</v>
+        <v>0.8966713734871343</v>
       </c>
       <c r="O2">
-        <v>0.9964761462513788</v>
+        <v>0.9999999999961731</v>
       </c>
       <c r="P2">
-        <v>0.9719096284646722</v>
+        <v>0.9438408768220407</v>
       </c>
       <c r="Q2">
-        <v>30.3166998235019</v>
+        <v>30.61107002287189</v>
       </c>
       <c r="R2">
-        <v>-90.07508069017868</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.1402189969705</v>
+        <v>144.8484486356858</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960644175</v>
+        <v>0.4985008017277145</v>
       </c>
       <c r="O3">
-        <v>0.9833239238224899</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P3">
-        <v>0.8842484437032631</v>
+        <v>0.8458030579082587</v>
       </c>
       <c r="Q3">
-        <v>31.07876276226737</v>
+        <v>32.32516518541934</v>
       </c>
       <c r="R3">
-        <v>-90.41924373722819</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S3">
-        <v>139.6021034742137</v>
+        <v>119.8706392621925</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156661259</v>
+        <v>0.4373394470353294</v>
       </c>
       <c r="O4">
-        <v>0.9760205715775576</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P4">
-        <v>0.7858310070177521</v>
+        <v>0.6516944633876428</v>
       </c>
       <c r="Q4">
-        <v>37.72192694394271</v>
+        <v>61.20994934641837</v>
       </c>
       <c r="R4">
-        <v>-90.14079250129508</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S4">
-        <v>139.0387173175934</v>
+        <v>108.8561569746339</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773523</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333358.8807</v>
+        <v>47.95286076627841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5574,37 +5574,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088273</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851245</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088117</v>
       </c>
       <c r="N5">
-        <v>0.5302269210086259</v>
+        <v>0.500000000018031</v>
       </c>
       <c r="O5">
-        <v>0.944755274725201</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P5">
-        <v>0.5302269209648947</v>
+        <v>0.4999999999834786</v>
       </c>
       <c r="Q5">
-        <v>62.98619605275796</v>
+        <v>89.99999999549728</v>
       </c>
       <c r="R5">
-        <v>-89.99999999945889</v>
+        <v>-89.99999999999662</v>
       </c>
       <c r="S5">
-        <v>117.0138039507189</v>
+        <v>90.00000000449491</v>
       </c>
       <c r="T5">
-        <v>28867513461.69375</v>
+        <v>4.152839560773522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999205684</v>
+        <v>0.4373394470552117</v>
       </c>
       <c r="O6">
-        <v>0.9999999999916224</v>
+        <v>1.00000000000151</v>
       </c>
       <c r="P6">
-        <v>0.999999999999391</v>
+        <v>0.6516944633797506</v>
       </c>
       <c r="Q6">
-        <v>29.99999999670223</v>
+        <v>61.20994934544287</v>
       </c>
       <c r="R6">
-        <v>-90.0000000004285</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S6">
-        <v>149.9999999946039</v>
+        <v>108.8561569763667</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9706292519998697</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985837</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.9879862005556695</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.84250695526115</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4471765695397</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8589794972912008</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9561489247927523</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.64757030494522</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>142.0362307983303</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8140158862310342</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8919303698408605</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.18097742317094</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.5730987250092</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163809</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.62331119858783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5959,37 +5959,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088273</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851245</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088117</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7725012617988067</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8283833974071204</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>36.11052438552571</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.884239796956</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8140158862367382</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8919303698407993</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>32.18097742330896</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.5730987253966</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9706292519998697</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985837</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.9879862005556695</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.84250695526115</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4471765695397</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8589794972912008</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9561489247927523</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.64757030494522</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>142.0362307983303</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8140158862310342</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8919303698408605</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.18097742317094</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.5730987250092</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163809</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.62331119858783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6344,37 +6344,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900892756</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547088273</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851245</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088117</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7725012617988067</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8283833974071204</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>36.11052438552571</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.884239796956</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.179813358163808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8140158862367382</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000078</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8919303698407993</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>32.18097742330896</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>140.5730987253966</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06470852768996</v>
+        <v>0.9717494207164722</v>
       </c>
       <c r="O2">
-        <v>1.024081333193689</v>
+        <v>0.9717494206916383</v>
       </c>
       <c r="P2">
-        <v>1.057104282137956</v>
+        <v>0.9717494207031515</v>
       </c>
       <c r="Q2">
-        <v>28.49381784403814</v>
+        <v>28.31770442398509</v>
       </c>
       <c r="R2">
-        <v>-90.73639486213638</v>
+        <v>-91.6822955760716</v>
       </c>
       <c r="S2">
-        <v>150.7786273659784</v>
+        <v>148.3177044252175</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060119724048</v>
+        <v>0.4711324626214042</v>
       </c>
       <c r="O3">
-        <v>0.710789328845948</v>
+        <v>0.4711324625050278</v>
       </c>
       <c r="P3">
-        <v>0.8728137019013238</v>
+        <v>0.4711324625119801</v>
       </c>
       <c r="Q3">
-        <v>20.34129285270419</v>
+        <v>6.820201507665587</v>
       </c>
       <c r="R3">
-        <v>-97.28975848502493</v>
+        <v>-113.1797984995244</v>
       </c>
       <c r="S3">
-        <v>154.1637402969482</v>
+        <v>126.82020151632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540957892998</v>
+        <v>0.2355662314151704</v>
       </c>
       <c r="O4">
-        <v>0.5817547041753083</v>
+        <v>0.2355662312552984</v>
       </c>
       <c r="P4">
-        <v>0.833121848889919</v>
+        <v>0.2355662312918537</v>
       </c>
       <c r="Q4">
-        <v>19.2027816384779</v>
+        <v>6.820201519128995</v>
       </c>
       <c r="R4">
-        <v>-92.96219771937331</v>
+        <v>-113.1797984930498</v>
       </c>
       <c r="S4">
-        <v>158.9109756954087</v>
+        <v>126.8202015467077</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840970.52925</v>
+        <v>5.990639311563642</v>
       </c>
       <c r="D5">
-        <v>32377840972.95094</v>
+        <v>5.990639311916996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104002.2792</v>
+        <v>69.17394438298446</v>
       </c>
       <c r="G5">
-        <v>373867104030.2424</v>
+        <v>69.17394438706465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6729,37 +6729,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.5945778888351438</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.06211196817851724</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5945778888372643</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034793882803</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000109792</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059652000002</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840968.47954</v>
+        <v>10.37609165721696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023792262</v>
+        <v>0.2355662314192368</v>
       </c>
       <c r="O6">
-        <v>1.100000023649744</v>
+        <v>0.2355662312593646</v>
       </c>
       <c r="P6">
-        <v>1.100000023688608</v>
+        <v>0.2355662312959198</v>
       </c>
       <c r="Q6">
-        <v>29.99999999225807</v>
+        <v>6.820201523695877</v>
       </c>
       <c r="R6">
-        <v>-90.00000000968545</v>
+        <v>-113.1797984884829</v>
       </c>
       <c r="S6">
-        <v>149.9999999977078</v>
+        <v>126.8202015512746</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.06470852768996</v>
+        <v>0.9717494207164722</v>
       </c>
       <c r="O2">
-        <v>1.024081333193689</v>
+        <v>0.9717494206916383</v>
       </c>
       <c r="P2">
-        <v>1.057104282137956</v>
+        <v>0.9717494207031515</v>
       </c>
       <c r="Q2">
-        <v>28.49381784403814</v>
+        <v>28.31770442398509</v>
       </c>
       <c r="R2">
-        <v>-90.73639486213638</v>
+        <v>-91.6822955760716</v>
       </c>
       <c r="S2">
-        <v>150.7786273659784</v>
+        <v>148.3177044252175</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060119724048</v>
+        <v>0.4711324626214042</v>
       </c>
       <c r="O3">
-        <v>0.710789328845948</v>
+        <v>0.4711324625050278</v>
       </c>
       <c r="P3">
-        <v>0.8728137019013238</v>
+        <v>0.4711324625119801</v>
       </c>
       <c r="Q3">
-        <v>20.34129285270419</v>
+        <v>6.820201507665587</v>
       </c>
       <c r="R3">
-        <v>-97.28975848502493</v>
+        <v>-113.1797984995244</v>
       </c>
       <c r="S3">
-        <v>154.1637402969482</v>
+        <v>126.82020151632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540957892998</v>
+        <v>0.2355662314151704</v>
       </c>
       <c r="O4">
-        <v>0.5817547041753083</v>
+        <v>0.2355662312552984</v>
       </c>
       <c r="P4">
-        <v>0.833121848889919</v>
+        <v>0.2355662312918537</v>
       </c>
       <c r="Q4">
-        <v>19.2027816384779</v>
+        <v>6.820201519128995</v>
       </c>
       <c r="R4">
-        <v>-92.96219771937331</v>
+        <v>-113.1797984930498</v>
       </c>
       <c r="S4">
-        <v>158.9109756954087</v>
+        <v>126.8202015467077</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,19 +7093,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840970.52925</v>
+        <v>5.990639311563642</v>
       </c>
       <c r="D5">
-        <v>32377840972.95094</v>
+        <v>5.990639311916996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104002.2792</v>
+        <v>69.17394438298446</v>
       </c>
       <c r="G5">
-        <v>373867104030.2424</v>
+        <v>69.17394438706465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7114,37 +7114,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.5945778888351438</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.06211196817851724</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5945778888372643</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034793882803</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000109792</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059652000002</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840968.47954</v>
+        <v>10.37609165721696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023792262</v>
+        <v>0.2355662314192368</v>
       </c>
       <c r="O6">
-        <v>1.100000023649744</v>
+        <v>0.2355662312593646</v>
       </c>
       <c r="P6">
-        <v>1.100000023688608</v>
+        <v>0.2355662312959198</v>
       </c>
       <c r="Q6">
-        <v>29.99999999225807</v>
+        <v>6.820201523695877</v>
       </c>
       <c r="R6">
-        <v>-90.00000000968545</v>
+        <v>-113.1797984884829</v>
       </c>
       <c r="S6">
-        <v>149.9999999977078</v>
+        <v>126.8202015512746</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841539</v>
+        <v>1.083364624541031</v>
       </c>
       <c r="O2">
-        <v>1.100000023839375</v>
+        <v>1.060344120151721</v>
       </c>
       <c r="P2">
-        <v>1.10000002383959</v>
+        <v>1.07286868819599</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987415</v>
+        <v>28.69339966247155</v>
       </c>
       <c r="R2">
-        <v>-90.00000000017313</v>
+        <v>-91.25541415425153</v>
       </c>
       <c r="S2">
-        <v>149.9999999999409</v>
+        <v>149.7834652714462</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023840851</v>
+        <v>1.02696724022692</v>
       </c>
       <c r="O3">
-        <v>1.100000023829779</v>
+        <v>0.906944960556182</v>
       </c>
       <c r="P3">
-        <v>1.100000023830246</v>
+        <v>0.9592239605453444</v>
       </c>
       <c r="Q3">
-        <v>29.99999999934048</v>
+        <v>22.48718385348399</v>
       </c>
       <c r="R3">
-        <v>-90.00000000095955</v>
+        <v>-98.42976487994281</v>
       </c>
       <c r="S3">
-        <v>149.9999999996826</v>
+        <v>148.2781986076681</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023837893</v>
+        <v>0.9797776769599629</v>
       </c>
       <c r="O4">
-        <v>1.100000023822635</v>
+        <v>0.8245251459002872</v>
       </c>
       <c r="P4">
-        <v>1.10000002382589</v>
+        <v>0.9151845495896114</v>
       </c>
       <c r="Q4">
-        <v>29.99999999917684</v>
+        <v>21.0454681054267</v>
       </c>
       <c r="R4">
-        <v>-90.00000000108136</v>
+        <v>-98.72515785568673</v>
       </c>
       <c r="S4">
-        <v>149.9999999997287</v>
+        <v>149.5983843367677</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,19 +7478,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.79629251690412</v>
+        <v>1.360942021579818</v>
       </c>
       <c r="D5">
-        <v>1.79629251690412</v>
+        <v>1.247282332484529</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.74179936355809</v>
+        <v>15.71480485021163</v>
       </c>
       <c r="G5">
-        <v>20.74179936355809</v>
+        <v>14.40237580830814</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7499,37 +7499,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>1.100000023830971</v>
+        <v>0.9332709653892599</v>
       </c>
       <c r="O5">
-        <v>1.100000023796269</v>
+        <v>0.7421321146326334</v>
       </c>
       <c r="P5">
-        <v>1.100000023805567</v>
+        <v>0.8716799621214584</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>19.45897516222088</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-99.08615255177385</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>151.0511852297262</v>
       </c>
       <c r="T5">
-        <v>1.796292516904121</v>
+        <v>1.552311889249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9797776769587123</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.8245251459013367</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9151845495921287</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>21.04546810567122</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-98.72515785522468</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>149.5983843369623</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841539</v>
+        <v>1.083364624541031</v>
       </c>
       <c r="O2">
-        <v>1.100000023839375</v>
+        <v>1.060344120151721</v>
       </c>
       <c r="P2">
-        <v>1.10000002383959</v>
+        <v>1.07286868819599</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987415</v>
+        <v>28.69339966247155</v>
       </c>
       <c r="R2">
-        <v>-90.00000000017313</v>
+        <v>-91.25541415425153</v>
       </c>
       <c r="S2">
-        <v>149.9999999999409</v>
+        <v>149.7834652714462</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023840851</v>
+        <v>1.02696724022692</v>
       </c>
       <c r="O3">
-        <v>1.100000023829779</v>
+        <v>0.906944960556182</v>
       </c>
       <c r="P3">
-        <v>1.100000023830246</v>
+        <v>0.9592239605453444</v>
       </c>
       <c r="Q3">
-        <v>29.99999999934048</v>
+        <v>22.48718385348399</v>
       </c>
       <c r="R3">
-        <v>-90.00000000095955</v>
+        <v>-98.42976487994281</v>
       </c>
       <c r="S3">
-        <v>149.9999999996826</v>
+        <v>148.2781986076681</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023837893</v>
+        <v>0.9797776769599629</v>
       </c>
       <c r="O4">
-        <v>1.100000023822635</v>
+        <v>0.8245251459002872</v>
       </c>
       <c r="P4">
-        <v>1.10000002382589</v>
+        <v>0.9151845495896114</v>
       </c>
       <c r="Q4">
-        <v>29.99999999917684</v>
+        <v>21.0454681054267</v>
       </c>
       <c r="R4">
-        <v>-90.00000000108136</v>
+        <v>-98.72515785568673</v>
       </c>
       <c r="S4">
-        <v>149.9999999997287</v>
+        <v>149.5983843367677</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,19 +7863,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.79629251690412</v>
+        <v>1.360942021579818</v>
       </c>
       <c r="D5">
-        <v>1.79629251690412</v>
+        <v>1.247282332484529</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.74179936355809</v>
+        <v>15.71480485021163</v>
       </c>
       <c r="G5">
-        <v>20.74179936355809</v>
+        <v>14.40237580830814</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7884,37 +7884,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>1.100000023830971</v>
+        <v>0.9332709653892599</v>
       </c>
       <c r="O5">
-        <v>1.100000023796269</v>
+        <v>0.7421321146326334</v>
       </c>
       <c r="P5">
-        <v>1.100000023805567</v>
+        <v>0.8716799621214584</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>19.45897516222088</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-99.08615255177385</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>151.0511852297262</v>
       </c>
       <c r="T5">
-        <v>1.796292516904121</v>
+        <v>1.552311889249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9797776769587123</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.8245251459013367</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9151845495921287</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>21.04546810567122</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-98.72515785522468</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>149.5983843369623</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.97259698428973</v>
+        <v>0.892507760131139</v>
       </c>
       <c r="O2">
-        <v>0.9329299242061782</v>
+        <v>0.8925077601136238</v>
       </c>
       <c r="P2">
-        <v>0.9581836708239337</v>
+        <v>0.8925077601141856</v>
       </c>
       <c r="Q2">
-        <v>28.13219420512045</v>
+        <v>26.78057305214607</v>
       </c>
       <c r="R2">
-        <v>-91.53377747803115</v>
+        <v>-93.21942694845659</v>
       </c>
       <c r="S2">
-        <v>150.3503418413233</v>
+        <v>146.7805730528112</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386625553712</v>
+        <v>0.5561090193964653</v>
       </c>
       <c r="O3">
-        <v>0.6943631325543309</v>
+        <v>0.5561090193441952</v>
       </c>
       <c r="P3">
-        <v>0.7965930094571544</v>
+        <v>0.5561090193002604</v>
       </c>
       <c r="Q3">
-        <v>19.60327145042938</v>
+        <v>1.006342769759731</v>
       </c>
       <c r="R3">
-        <v>-101.429341527462</v>
+        <v>-118.9936572385715</v>
       </c>
       <c r="S3">
-        <v>151.2800244251908</v>
+        <v>121.0063427702507</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621029863</v>
+        <v>0.278054509784338</v>
       </c>
       <c r="O4">
-        <v>0.5433154598561202</v>
+        <v>0.2780545096858936</v>
       </c>
       <c r="P4">
-        <v>0.7570993497915433</v>
+        <v>0.2780545096647433</v>
       </c>
       <c r="Q4">
-        <v>18.94495364167214</v>
+        <v>1.006342783046062</v>
       </c>
       <c r="R4">
-        <v>-94.84247768968591</v>
+        <v>-118.9936572336933</v>
       </c>
       <c r="S4">
-        <v>157.8990167173563</v>
+        <v>121.0063427922368</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,19 +8248,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400241.65627</v>
+        <v>4.795286076026513</v>
       </c>
       <c r="D5">
-        <v>29434400243.92387</v>
+        <v>4.795286076429949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178059.1086</v>
+        <v>55.37119413670344</v>
       </c>
       <c r="G5">
-        <v>339879178085.2927</v>
+        <v>55.3711941413619</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8269,37 +8269,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>0.5405253417463338</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542440152089</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5405253417487207</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034794414834</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000068884</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651993554</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400241.21919</v>
+        <v>8.305679120511529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000004134</v>
+        <v>0.2780545097928542</v>
       </c>
       <c r="O6">
-        <v>0.9999999999316843</v>
+        <v>0.2780545096944102</v>
       </c>
       <c r="P6">
-        <v>0.9999999999237631</v>
+        <v>0.2780545096732597</v>
       </c>
       <c r="Q6">
-        <v>29.99999999465547</v>
+        <v>1.006342787783074</v>
       </c>
       <c r="R6">
-        <v>-90.00000000826033</v>
+        <v>-118.9936572289563</v>
       </c>
       <c r="S6">
-        <v>149.9999999967852</v>
+        <v>121.0063427969737</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.060344120151521</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957042E-10</v>
+        <v>-1.25541415425847</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9069449605546523</v>
       </c>
       <c r="G3">
-        <v>-9.66500499240178E-10</v>
+        <v>-8.429764879980961</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8245251458986055</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.725157855731627</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8474,22 +8474,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.211896668391059</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>41.98133206353532</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142516</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416214</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7421321146308011</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014495</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.8245251458996552</v>
       </c>
       <c r="G6">
-        <v>-7.575466957624396E-19</v>
+        <v>-8.725157855269579</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.97259698428973</v>
+        <v>0.892507760131139</v>
       </c>
       <c r="O2">
-        <v>0.9329299242061782</v>
+        <v>0.8925077601136238</v>
       </c>
       <c r="P2">
-        <v>0.9581836708239337</v>
+        <v>0.8925077601141856</v>
       </c>
       <c r="Q2">
-        <v>28.13219420512045</v>
+        <v>26.78057305214607</v>
       </c>
       <c r="R2">
-        <v>-91.53377747803115</v>
+        <v>-93.21942694845659</v>
       </c>
       <c r="S2">
-        <v>150.3503418413233</v>
+        <v>146.7805730528112</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386625553712</v>
+        <v>0.5561090193964653</v>
       </c>
       <c r="O3">
-        <v>0.6943631325543309</v>
+        <v>0.5561090193441952</v>
       </c>
       <c r="P3">
-        <v>0.7965930094571544</v>
+        <v>0.5561090193002604</v>
       </c>
       <c r="Q3">
-        <v>19.60327145042938</v>
+        <v>1.006342769759731</v>
       </c>
       <c r="R3">
-        <v>-101.429341527462</v>
+        <v>-118.9936572385715</v>
       </c>
       <c r="S3">
-        <v>151.2800244251908</v>
+        <v>121.0063427702507</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621029863</v>
+        <v>0.278054509784338</v>
       </c>
       <c r="O4">
-        <v>0.5433154598561202</v>
+        <v>0.2780545096858936</v>
       </c>
       <c r="P4">
-        <v>0.7570993497915433</v>
+        <v>0.2780545096647433</v>
       </c>
       <c r="Q4">
-        <v>18.94495364167214</v>
+        <v>1.006342783046062</v>
       </c>
       <c r="R4">
-        <v>-94.84247768968591</v>
+        <v>-118.9936572336933</v>
       </c>
       <c r="S4">
-        <v>157.8990167173563</v>
+        <v>121.0063427922368</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400241.65627</v>
+        <v>4.795286076026513</v>
       </c>
       <c r="D5">
-        <v>29434400243.92387</v>
+        <v>4.795286076429949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178059.1086</v>
+        <v>55.37119413670344</v>
       </c>
       <c r="G5">
-        <v>339879178085.2927</v>
+        <v>55.3711941413619</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8805,37 +8805,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>0.5405253417463338</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542440152089</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5405253417487207</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034794414834</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000068884</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651993554</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400241.21919</v>
+        <v>8.305679120511529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000004134</v>
+        <v>0.2780545097928542</v>
       </c>
       <c r="O6">
-        <v>0.9999999999316843</v>
+        <v>0.2780545096944102</v>
       </c>
       <c r="P6">
-        <v>0.9999999999237631</v>
+        <v>0.2780545096732597</v>
       </c>
       <c r="Q6">
-        <v>29.99999999465547</v>
+        <v>1.006342787783074</v>
       </c>
       <c r="R6">
-        <v>-90.00000000826033</v>
+        <v>-118.9936572289563</v>
       </c>
       <c r="S6">
-        <v>149.9999999967852</v>
+        <v>121.0063427969737</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000000114</v>
+        <v>0.9848135972653207</v>
       </c>
       <c r="O2">
-        <v>0.9999999999983011</v>
+        <v>0.9631240430153676</v>
       </c>
       <c r="P2">
-        <v>0.9999999999980949</v>
+        <v>0.9731770533387011</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987005</v>
+        <v>28.57930099137726</v>
       </c>
       <c r="R2">
-        <v>-90.00000000019871</v>
+        <v>-91.4867939292817</v>
       </c>
       <c r="S2">
-        <v>149.9999999999183</v>
+        <v>149.6525806173946</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000001116</v>
+        <v>0.9392366191814754</v>
       </c>
       <c r="O3">
-        <v>0.9999999999926794</v>
+        <v>0.83671322835439</v>
       </c>
       <c r="P3">
-        <v>0.9999999999911265</v>
+        <v>0.8725070313569296</v>
       </c>
       <c r="Q3">
-        <v>29.99999999937845</v>
+        <v>22.54465939632457</v>
       </c>
       <c r="R3">
-        <v>-90.00000000099853</v>
+        <v>-98.94474932053312</v>
       </c>
       <c r="S3">
-        <v>149.9999999996013</v>
+        <v>147.6840719044376</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.999999999997073</v>
+        <v>0.8735836043520084</v>
       </c>
       <c r="O4">
-        <v>0.9999999999837448</v>
+        <v>0.7348977271740664</v>
       </c>
       <c r="P4">
-        <v>0.9999999999860451</v>
+        <v>0.8239429539344025</v>
       </c>
       <c r="Q4">
-        <v>29.9999999991895</v>
+        <v>21.67842209583326</v>
       </c>
       <c r="R4">
-        <v>-90.00000000109435</v>
+        <v>-97.41604264394392</v>
       </c>
       <c r="S4">
-        <v>149.9999999997016</v>
+        <v>150.4742357052635</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.63299316179139</v>
+        <v>1.156611714483269</v>
       </c>
       <c r="D5">
-        <v>1.63299316179139</v>
+        <v>1.099273646105932</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.85618083090155</v>
+        <v>13.35540169409581</v>
       </c>
       <c r="G5">
-        <v>18.85618083090155</v>
+        <v>12.69331870984643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9190,37 +9190,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>0.9999999999901024</v>
+        <v>0.8081626831870902</v>
       </c>
       <c r="O5">
-        <v>0.9999999999585553</v>
+        <v>0.6337732350779754</v>
       </c>
       <c r="P5">
-        <v>0.9999999999670084</v>
+        <v>0.7775740360722466</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>20.67167842680775</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-95.39765209812738</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>153.6053679382086</v>
       </c>
       <c r="T5">
-        <v>1.63299316179139</v>
+        <v>1.370751000813158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8735836043528421</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7348977271790212</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8239429539393698</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>21.6784220962172</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-97.41604264334286</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>150.4742357054463</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000000114</v>
+        <v>0.9848135972653207</v>
       </c>
       <c r="O2">
-        <v>0.9999999999983011</v>
+        <v>0.9631240430153676</v>
       </c>
       <c r="P2">
-        <v>0.9999999999980949</v>
+        <v>0.9731770533387011</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987005</v>
+        <v>28.57930099137726</v>
       </c>
       <c r="R2">
-        <v>-90.00000000019871</v>
+        <v>-91.4867939292817</v>
       </c>
       <c r="S2">
-        <v>149.9999999999183</v>
+        <v>149.6525806173946</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000001116</v>
+        <v>0.9392366191814754</v>
       </c>
       <c r="O3">
-        <v>0.9999999999926794</v>
+        <v>0.83671322835439</v>
       </c>
       <c r="P3">
-        <v>0.9999999999911265</v>
+        <v>0.8725070313569296</v>
       </c>
       <c r="Q3">
-        <v>29.99999999937845</v>
+        <v>22.54465939632457</v>
       </c>
       <c r="R3">
-        <v>-90.00000000099853</v>
+        <v>-98.94474932053312</v>
       </c>
       <c r="S3">
-        <v>149.9999999996013</v>
+        <v>147.6840719044376</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.999999999997073</v>
+        <v>0.8735836043520084</v>
       </c>
       <c r="O4">
-        <v>0.9999999999837448</v>
+        <v>0.7348977271740664</v>
       </c>
       <c r="P4">
-        <v>0.9999999999860451</v>
+        <v>0.8239429539344025</v>
       </c>
       <c r="Q4">
-        <v>29.9999999991895</v>
+        <v>21.67842209583326</v>
       </c>
       <c r="R4">
-        <v>-90.00000000109435</v>
+        <v>-97.41604264394392</v>
       </c>
       <c r="S4">
-        <v>149.9999999997016</v>
+        <v>150.4742357052635</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,19 +9554,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.63299316179139</v>
+        <v>1.156611714483269</v>
       </c>
       <c r="D5">
-        <v>1.63299316179139</v>
+        <v>1.099273646105932</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.85618083090155</v>
+        <v>13.35540169409581</v>
       </c>
       <c r="G5">
-        <v>18.85618083090155</v>
+        <v>12.69331870984643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9575,37 +9575,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.112151900864169</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.596397547110922</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.112151900851107</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.596397547088177</v>
       </c>
       <c r="N5">
-        <v>0.9999999999901024</v>
+        <v>0.8081626831870902</v>
       </c>
       <c r="O5">
-        <v>0.9999999999585553</v>
+        <v>0.6337732350779754</v>
       </c>
       <c r="P5">
-        <v>0.9999999999670084</v>
+        <v>0.7775740360722466</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>20.67167842680775</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-95.39765209812738</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>153.6053679382086</v>
       </c>
       <c r="T5">
-        <v>1.63299316179139</v>
+        <v>1.370751000813158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8735836043528421</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7348977271790212</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8239429539393698</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>21.6784220962172</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-97.41604264334286</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>150.4742357054463</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.060344120151521</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957042E-10</v>
+        <v>-1.25541415425847</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9069449605546523</v>
       </c>
       <c r="G3">
-        <v>-9.66500499240178E-10</v>
+        <v>-8.429764879980961</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8245251458986055</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.725157855731627</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9780,22 +9780,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.211896668391059</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>41.98133206353532</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.147731927142516</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.488438701416214</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7421321146308011</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014495</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.8245251458996552</v>
       </c>
       <c r="G6">
-        <v>-7.575466957624396E-19</v>
+        <v>-8.725157855269579</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.933040655372688</v>
+        <v>0.8925077601078493</v>
       </c>
       <c r="G2">
-        <v>-1.531049297940811</v>
+        <v>-3.219426948484622</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6948376003812453</v>
+        <v>0.5561090193350875</v>
       </c>
       <c r="G3">
-        <v>-11.40221982470525</v>
+        <v>-28.99365723912849</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710608532</v>
+        <v>0.2780545096765582</v>
       </c>
       <c r="G4">
-        <v>-4.827721958025633</v>
+        <v>-28.99365723481439</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9931,22 +9931,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513462.72</v>
+        <v>2.768559707297155</v>
       </c>
       <c r="C5">
-        <v>1000000000112.192</v>
+        <v>95.90572153653383</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870837</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.05471187338748273</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000000969054</v>
+        <v>59.57443045127813</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999296002</v>
+        <v>0.2780545096850746</v>
       </c>
       <c r="G6">
-        <v>-8.250259507376614E-09</v>
+        <v>-28.99365723007738</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.933040655372688</v>
+        <v>0.8925077601078493</v>
       </c>
       <c r="G2">
-        <v>-1.531049297940811</v>
+        <v>-3.219426948484622</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6948376003812453</v>
+        <v>0.5561090193350875</v>
       </c>
       <c r="G3">
-        <v>-11.40221982470525</v>
+        <v>-28.99365723912849</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710608532</v>
+        <v>0.2780545096765582</v>
       </c>
       <c r="G4">
-        <v>-4.827721958025633</v>
+        <v>-28.99365723481439</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10082,22 +10082,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513462.72</v>
+        <v>2.768559707297155</v>
       </c>
       <c r="C5">
-        <v>1000000000112.192</v>
+        <v>95.90572153653383</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870837</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.05471187338748273</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000000969054</v>
+        <v>59.57443045127813</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999296002</v>
+        <v>0.2780545096850746</v>
       </c>
       <c r="G6">
-        <v>-8.250259507376614E-09</v>
+        <v>-28.99365723007738</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9631240430123024</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.486793929291557</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8367132283505937</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-8.944749320585345</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7348977271702627</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.416042644003032</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10233,22 +10233,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.034947359043502</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>35.85162818045148</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870837</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6337732350741553</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.7348977271752174</v>
       </c>
       <c r="G6">
-        <v>-4.750498791078406E-19</v>
+        <v>-7.416042643401975</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9631240430123024</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.486793929291557</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8367132283505937</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-8.944749320585345</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7348977271702627</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.416042644003032</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10384,22 +10384,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.034947359043502</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>35.85162818045148</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.112151900870837</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.596397547088262</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6337732350741553</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.7348977271752174</v>
       </c>
       <c r="G6">
-        <v>-4.750498791078406E-19</v>
+        <v>-7.416042643401975</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538982531</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.028134418459593</v>
+        <v>0.9717494206873251</v>
       </c>
       <c r="P2">
-        <v>1.077959469435821</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>28.17453160928734</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-90.69428644301162</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>151.5326674576811</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672167839</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.7311545120199407</v>
+        <v>0.4711324625045253</v>
       </c>
       <c r="P3">
-        <v>0.98507869969647</v>
+        <v>0.8867526821368239</v>
       </c>
       <c r="Q3">
-        <v>19.99748951701672</v>
+        <v>11.70358232174647</v>
       </c>
       <c r="R3">
-        <v>-96.70515797813935</v>
+        <v>-113.1797985005416</v>
       </c>
       <c r="S3">
-        <v>158.4629648481379</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660679844</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.6093826337930718</v>
+        <v>0.235566231255748</v>
       </c>
       <c r="P4">
-        <v>0.9943261549536414</v>
+        <v>0.9127115190423143</v>
       </c>
       <c r="Q4">
-        <v>17.35880671887115</v>
+        <v>6.185827764751329</v>
       </c>
       <c r="R4">
-        <v>-92.6765358435927</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>162.2051963356334</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,19 +10682,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="D5">
-        <v>28040032802.161</v>
+        <v>2.99531965632286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="G5">
-        <v>323778409728.2718</v>
+        <v>34.58697219773961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10703,34 +10703,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.147731927164245</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.488438701404532</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.147731927170999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.488438701416129</v>
       </c>
       <c r="N5">
-        <v>0.9713352289731567</v>
+        <v>0.952627964804328</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289693503</v>
+        <v>0.952627964806171</v>
       </c>
       <c r="Q5">
-        <v>-1.951184347745243E-10</v>
+        <v>-1.467134350794419E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997976</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023881558</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>1.100000023667782</v>
+        <v>0.2355662312598143</v>
       </c>
       <c r="P6">
-        <v>1.100000023726079</v>
+        <v>0.9127115190507492</v>
       </c>
       <c r="Q6">
-        <v>29.99999999375012</v>
+        <v>6.185827765114881</v>
       </c>
       <c r="R6">
-        <v>-90.00000000916758</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>150.0000000019271</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_3_bus_ward34_resistance.xlsx
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014023</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045253</v>
+        <v>0.4711324625045256</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368239</v>
+        <v>0.8867526821368238</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174647</v>
+        <v>11.70358232174648</v>
       </c>
       <c r="R3">
         <v>-113.1797985005416</v>
@@ -873,16 +873,16 @@
         <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.235566231255748</v>
+        <v>0.2355662312557483</v>
       </c>
       <c r="P4">
         <v>0.9127115190423143</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751329</v>
+        <v>6.185827764751343</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957914</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -896,49 +896,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773958</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773958</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.952627964804328</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964806171</v>
+        <v>0.9526279648061706</v>
       </c>
       <c r="Q5">
-        <v>-1.467134350794419E-11</v>
+        <v>-1.466526418278949E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -991,16 +991,16 @@
         <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>0.2355662312598143</v>
+        <v>0.2355662312598147</v>
       </c>
       <c r="P6">
-        <v>0.9127115190507492</v>
+        <v>0.9127115190507489</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114881</v>
+        <v>6.185827765114886</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912245</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
@@ -1187,7 +1187,7 @@
         <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630314</v>
+        <v>20.60981428630315</v>
       </c>
       <c r="R3">
         <v>-102.5423331070932</v>
@@ -1240,13 +1240,13 @@
         <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>0.6778116409140659</v>
+        <v>0.6778116409140661</v>
       </c>
       <c r="P4">
-        <v>0.9365579876248714</v>
+        <v>0.9365579876248711</v>
       </c>
       <c r="Q4">
-        <v>17.79481892925099</v>
+        <v>17.794818929251</v>
       </c>
       <c r="R4">
         <v>-102.9968045963019</v>
@@ -1272,43 +1272,43 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.11438852725837</v>
+        <v>18.11438852725836</v>
       </c>
       <c r="G5">
-        <v>18.11438852725837</v>
+        <v>18.11438852725836</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
         <v>1.053149057115868</v>
       </c>
       <c r="O5">
-        <v>0.5546376111780769</v>
+        <v>0.5546376111780768</v>
       </c>
       <c r="P5">
         <v>0.9271939290302874</v>
       </c>
       <c r="Q5">
-        <v>14.82588342075279</v>
+        <v>14.8258834207528</v>
       </c>
       <c r="R5">
-        <v>-103.653192268985</v>
+        <v>-103.6531922689849</v>
       </c>
       <c r="S5">
         <v>163.1035456589491</v>
@@ -1358,19 +1358,19 @@
         <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>0.6778116409156865</v>
+        <v>0.6778116409156864</v>
       </c>
       <c r="P6">
-        <v>0.9365579876299002</v>
+        <v>0.9365579876298999</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942268</v>
+        <v>17.79481892942269</v>
       </c>
       <c r="R6">
         <v>-102.9968045954625</v>
       </c>
       <c r="S6">
-        <v>159.3539935570705</v>
+        <v>159.3539935570706</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630314</v>
+        <v>20.60981428630315</v>
       </c>
       <c r="R3">
         <v>-102.5423331070932</v>
@@ -1607,13 +1607,13 @@
         <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>0.6778116409140659</v>
+        <v>0.6778116409140661</v>
       </c>
       <c r="P4">
-        <v>0.9365579876248714</v>
+        <v>0.9365579876248711</v>
       </c>
       <c r="Q4">
-        <v>17.79481892925099</v>
+        <v>17.794818929251</v>
       </c>
       <c r="R4">
         <v>-102.9968045963019</v>
@@ -1639,43 +1639,43 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.11438852725837</v>
+        <v>18.11438852725836</v>
       </c>
       <c r="G5">
-        <v>18.11438852725837</v>
+        <v>18.11438852725836</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
         <v>1.053149057115868</v>
       </c>
       <c r="O5">
-        <v>0.5546376111780769</v>
+        <v>0.5546376111780768</v>
       </c>
       <c r="P5">
         <v>0.9271939290302874</v>
       </c>
       <c r="Q5">
-        <v>14.82588342075279</v>
+        <v>14.8258834207528</v>
       </c>
       <c r="R5">
-        <v>-103.653192268985</v>
+        <v>-103.6531922689849</v>
       </c>
       <c r="S5">
         <v>163.1035456589491</v>
@@ -1725,19 +1725,19 @@
         <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>0.6778116409156865</v>
+        <v>0.6778116409156864</v>
       </c>
       <c r="P6">
-        <v>0.9365579876299002</v>
+        <v>0.9365579876298999</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942268</v>
+        <v>17.79481892942269</v>
       </c>
       <c r="R6">
         <v>-102.9968045954625</v>
       </c>
       <c r="S6">
-        <v>159.3539935570705</v>
+        <v>159.3539935570706</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.029929217032502</v>
+        <v>1.029929217032501</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399914</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
         <v>0.7706324860879302</v>
@@ -1974,13 +1974,13 @@
         <v>0.9413015024173007</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809834</v>
+        <v>0.2780545096809838</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250765</v>
+        <v>0.8078419627250764</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182365</v>
+        <v>7.422585260182375</v>
       </c>
       <c r="R4">
         <v>-118.9936572335705</v>
@@ -2006,40 +2006,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="G5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887607</v>
+        <v>0.8660254037887606</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891284</v>
+        <v>0.866025403789128</v>
       </c>
       <c r="Q5">
-        <v>1.933770379057596E-10</v>
+        <v>1.933791973504085E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105789</v>
+        <v>0.9413015024105786</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894999</v>
+        <v>0.2780545096895002</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343745</v>
+        <v>0.807841962734374</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806285</v>
+        <v>7.42258526080629</v>
       </c>
       <c r="R6">
         <v>-118.9936572288335</v>
@@ -2279,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.029929217032502</v>
+        <v>1.029929217032501</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399914</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
         <v>0.7706324860879302</v>
@@ -2341,13 +2341,13 @@
         <v>0.9413015024173007</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809834</v>
+        <v>0.2780545096809838</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250765</v>
+        <v>0.8078419627250764</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182365</v>
+        <v>7.422585260182375</v>
       </c>
       <c r="R4">
         <v>-118.9936572335705</v>
@@ -2373,40 +2373,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="G5">
-        <v>27.68559707302024</v>
+        <v>27.68559707302025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887607</v>
+        <v>0.8660254037887606</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891284</v>
+        <v>0.866025403789128</v>
       </c>
       <c r="Q5">
-        <v>1.933770379057596E-10</v>
+        <v>1.933791973504085E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105789</v>
+        <v>0.9413015024105786</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894999</v>
+        <v>0.2780545096895002</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343745</v>
+        <v>0.807841962734374</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806285</v>
+        <v>7.42258526080629</v>
       </c>
       <c r="R6">
         <v>-118.9936572288335</v>
@@ -2649,13 +2649,13 @@
         <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.7601105130307678</v>
+        <v>0.760110513030768</v>
       </c>
       <c r="P3">
-        <v>0.8600596939664565</v>
+        <v>0.8600596939664567</v>
       </c>
       <c r="Q3">
-        <v>21.1397320822947</v>
+        <v>21.13973208229471</v>
       </c>
       <c r="R3">
         <v>-103.5956248909722</v>
@@ -2708,13 +2708,13 @@
         <v>0.9736886975942206</v>
       </c>
       <c r="O4">
-        <v>0.6105905023675668</v>
+        <v>0.6105905023675671</v>
       </c>
       <c r="P4">
         <v>0.8592675374866851</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075593</v>
+        <v>17.89765854075594</v>
       </c>
       <c r="R4">
         <v>-101.4382340426271</v>
@@ -2746,34 +2746,34 @@
         <v>15.10503255976918</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
         <v>0.9265339329004404</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982433</v>
+        <v>0.4624952789982437</v>
       </c>
       <c r="P5">
-        <v>0.8651507456751668</v>
+        <v>0.8651507456751667</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380568</v>
+        <v>14.31307774380569</v>
       </c>
       <c r="R5">
         <v>-97.89113682127689</v>
@@ -2826,13 +2826,13 @@
         <v>0.973688697590931</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744959</v>
+        <v>0.610590502374496</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928743</v>
+        <v>0.8592675374928742</v>
       </c>
       <c r="Q6">
-        <v>17.89765854109857</v>
+        <v>17.89765854109858</v>
       </c>
       <c r="R6">
         <v>-101.4382340415536</v>
@@ -3016,13 +3016,13 @@
         <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.7601105130307678</v>
+        <v>0.760110513030768</v>
       </c>
       <c r="P3">
-        <v>0.8600596939664565</v>
+        <v>0.8600596939664567</v>
       </c>
       <c r="Q3">
-        <v>21.1397320822947</v>
+        <v>21.13973208229471</v>
       </c>
       <c r="R3">
         <v>-103.5956248909722</v>
@@ -3075,13 +3075,13 @@
         <v>0.9736886975942206</v>
       </c>
       <c r="O4">
-        <v>0.6105905023675668</v>
+        <v>0.6105905023675671</v>
       </c>
       <c r="P4">
         <v>0.8592675374866851</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075593</v>
+        <v>17.89765854075594</v>
       </c>
       <c r="R4">
         <v>-101.4382340426271</v>
@@ -3113,34 +3113,34 @@
         <v>15.10503255976918</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
         <v>0.9265339329004404</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982433</v>
+        <v>0.4624952789982437</v>
       </c>
       <c r="P5">
-        <v>0.8651507456751668</v>
+        <v>0.8651507456751667</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380568</v>
+        <v>14.31307774380569</v>
       </c>
       <c r="R5">
         <v>-97.89113682127689</v>
@@ -3193,13 +3193,13 @@
         <v>0.973688697590931</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744959</v>
+        <v>0.610590502374496</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928743</v>
+        <v>0.8592675374928742</v>
       </c>
       <c r="Q6">
-        <v>17.89765854109857</v>
+        <v>17.89765854109858</v>
       </c>
       <c r="R6">
         <v>-101.4382340415536</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9917389427111208</v>
+        <v>1.010157388595001</v>
       </c>
       <c r="O2">
-        <v>1.100000023847089</v>
+        <v>1.100000023846614</v>
       </c>
       <c r="P2">
-        <v>1.018773429518528</v>
+        <v>1.063022528928622</v>
       </c>
       <c r="Q2">
-        <v>31.98313762604858</v>
+        <v>29.67982992930354</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.6590995766424</v>
+        <v>145.6493003763729</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5406599594186527</v>
+        <v>0.6326467291235816</v>
       </c>
       <c r="O3">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P3">
-        <v>0.8035144867332755</v>
+        <v>1.010445546279812</v>
       </c>
       <c r="Q3">
-        <v>46.07338582619843</v>
+        <v>25.04688353037185</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>117.8263709265779</v>
+        <v>124.557197838238</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5057548966381509</v>
+        <v>0.4949016856188091</v>
       </c>
       <c r="O4">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P4">
-        <v>0.6576086866432962</v>
+        <v>0.9234697392610721</v>
       </c>
       <c r="Q4">
-        <v>68.23456708388065</v>
+        <v>33.57521537105433</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S4">
-        <v>106.5696916197919</v>
+        <v>116.5195785201188</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.188045829440219</v>
+        <v>4.092524193317988</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59.90639312390852</v>
+        <v>47.25639889354393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075634</v>
+        <v>1.147731927075651</v>
       </c>
       <c r="K5">
-        <v>3.488438701416201</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171094</v>
+        <v>1.147731927171108</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.5500000119532442</v>
+        <v>0.3760438762143542</v>
       </c>
       <c r="O5">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P5">
-        <v>0.5500000118973561</v>
+        <v>0.8581305498427854</v>
       </c>
       <c r="Q5">
-        <v>89.99999999448269</v>
+        <v>48.0227612443416</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S5">
-        <v>90.00000000551005</v>
+        <v>107.043176748557</v>
       </c>
       <c r="T5">
-        <v>5.188045829440219</v>
+        <v>4.092524193317988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5057548966543197</v>
+        <v>0.494901685628547</v>
       </c>
       <c r="O6">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P6">
-        <v>0.6576086866330461</v>
+        <v>0.9234697392511417</v>
       </c>
       <c r="Q6">
-        <v>68.23456708343635</v>
+        <v>33.57521537207314</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>106.5696916209337</v>
+        <v>116.5195785206512</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9917389427111208</v>
+        <v>1.010157388595001</v>
       </c>
       <c r="O2">
-        <v>1.100000023847089</v>
+        <v>1.100000023846614</v>
       </c>
       <c r="P2">
-        <v>1.018773429518528</v>
+        <v>1.063022528928622</v>
       </c>
       <c r="Q2">
-        <v>31.98313762604858</v>
+        <v>29.67982992930354</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.6590995766424</v>
+        <v>145.6493003763729</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5406599594186527</v>
+        <v>0.6326467291235816</v>
       </c>
       <c r="O3">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P3">
-        <v>0.8035144867332755</v>
+        <v>1.010445546279812</v>
       </c>
       <c r="Q3">
-        <v>46.07338582619843</v>
+        <v>25.04688353037185</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>117.8263709265779</v>
+        <v>124.557197838238</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5057548966381509</v>
+        <v>0.4949016856188091</v>
       </c>
       <c r="O4">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P4">
-        <v>0.6576086866432962</v>
+        <v>0.9234697392610721</v>
       </c>
       <c r="Q4">
-        <v>68.23456708388065</v>
+        <v>33.57521537105433</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S4">
-        <v>106.5696916197919</v>
+        <v>116.5195785201188</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.188045829440219</v>
+        <v>4.092524193317988</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>59.90639312390852</v>
+        <v>47.25639889354393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075634</v>
+        <v>1.147731927075651</v>
       </c>
       <c r="K5">
-        <v>3.488438701416201</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171094</v>
+        <v>1.147731927171108</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.5500000119532442</v>
+        <v>0.3760438762143542</v>
       </c>
       <c r="O5">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P5">
-        <v>0.5500000118973561</v>
+        <v>0.8581305498427854</v>
       </c>
       <c r="Q5">
-        <v>89.99999999448269</v>
+        <v>48.0227612443416</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999675</v>
       </c>
       <c r="S5">
-        <v>90.00000000551005</v>
+        <v>107.043176748557</v>
       </c>
       <c r="T5">
-        <v>5.188045829440219</v>
+        <v>4.092524193317988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5057548966543197</v>
+        <v>0.494901685628547</v>
       </c>
       <c r="O6">
-        <v>1.1000000238506</v>
+        <v>1.100000023851777</v>
       </c>
       <c r="P6">
-        <v>0.6576086866330461</v>
+        <v>0.9234697392511417</v>
       </c>
       <c r="Q6">
-        <v>68.23456708343635</v>
+        <v>33.57521537207314</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>106.5696916209337</v>
+        <v>116.5195785206512</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.07005338699304</v>
+        <v>1.072751921353873</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843325</v>
       </c>
       <c r="P2">
-        <v>1.086480205218673</v>
+        <v>1.089798796109867</v>
       </c>
       <c r="Q2">
-        <v>29.93022374263624</v>
+        <v>29.8069888073181</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5977988866262</v>
+        <v>148.663973293044</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9434172310242592</v>
+        <v>0.9584315353437424</v>
       </c>
       <c r="O3">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P3">
-        <v>1.044661961491181</v>
+        <v>1.060796139667338</v>
       </c>
       <c r="Q3">
-        <v>29.07850908506786</v>
+        <v>28.41314358801624</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999648</v>
       </c>
       <c r="S3">
-        <v>142.115867082149</v>
+        <v>142.6236943215193</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8985690160381109</v>
+        <v>0.9147337705624</v>
       </c>
       <c r="O4">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P4">
-        <v>1.001074895726564</v>
+        <v>1.023214073090783</v>
       </c>
       <c r="Q4">
-        <v>30.90271553726539</v>
+        <v>29.78862743918965</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S4">
-        <v>140.3701275405207</v>
+        <v>140.8825101900941</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.73319923289742</v>
+        <v>14.42993989098044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075634</v>
+        <v>1.147731927075651</v>
       </c>
       <c r="K5">
-        <v>3.488438701416201</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171094</v>
+        <v>1.147731927171108</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.8547266890462561</v>
+        <v>0.871615861617138</v>
       </c>
       <c r="O5">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P5">
-        <v>0.958501179724831</v>
+        <v>0.9866484201455054</v>
       </c>
       <c r="Q5">
-        <v>32.9162846990792</v>
+        <v>31.30114418651963</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S5">
-        <v>138.467406117994</v>
+        <v>139.0104291905996</v>
       </c>
       <c r="T5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8985690160412705</v>
+        <v>0.9147337705649842</v>
       </c>
       <c r="O6">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P6">
-        <v>1.001074895724771</v>
+        <v>1.023214073088855</v>
       </c>
       <c r="Q6">
-        <v>30.90271553745785</v>
+        <v>29.78862743938152</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S6">
-        <v>140.3701275407487</v>
+        <v>140.8825101902908</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.07005338699304</v>
+        <v>1.072751921353873</v>
       </c>
       <c r="O2">
-        <v>1.100000023843436</v>
+        <v>1.100000023843325</v>
       </c>
       <c r="P2">
-        <v>1.086480205218673</v>
+        <v>1.089798796109867</v>
       </c>
       <c r="Q2">
-        <v>29.93022374263624</v>
+        <v>29.8069888073181</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5977988866262</v>
+        <v>148.663973293044</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9434172310242592</v>
+        <v>0.9584315353437424</v>
       </c>
       <c r="O3">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P3">
-        <v>1.044661961491181</v>
+        <v>1.060796139667338</v>
       </c>
       <c r="Q3">
-        <v>29.07850908506786</v>
+        <v>28.41314358801624</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999648</v>
       </c>
       <c r="S3">
-        <v>142.115867082149</v>
+        <v>142.6236943215193</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8985690160381109</v>
+        <v>0.9147337705624</v>
       </c>
       <c r="O4">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P4">
-        <v>1.001074895726564</v>
+        <v>1.023214073090783</v>
       </c>
       <c r="Q4">
-        <v>30.90271553726539</v>
+        <v>29.78862743918965</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S4">
-        <v>140.3701275405207</v>
+        <v>140.8825101900941</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.73319923289742</v>
+        <v>14.42993989098044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315815</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2277537498801002</v>
       </c>
       <c r="J5">
-        <v>1.147731927075634</v>
+        <v>1.147731927075651</v>
       </c>
       <c r="K5">
-        <v>3.488438701416201</v>
+        <v>3.488438701416192</v>
       </c>
       <c r="L5">
-        <v>1.147731927171094</v>
+        <v>1.147731927171108</v>
       </c>
       <c r="M5">
-        <v>3.488438701416072</v>
+        <v>3.488438701416009</v>
       </c>
       <c r="N5">
-        <v>0.8547266890462561</v>
+        <v>0.871615861617138</v>
       </c>
       <c r="O5">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P5">
-        <v>0.958501179724831</v>
+        <v>0.9866484201455054</v>
       </c>
       <c r="Q5">
-        <v>32.9162846990792</v>
+        <v>31.30114418651963</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S5">
-        <v>138.467406117994</v>
+        <v>139.0104291905996</v>
       </c>
       <c r="T5">
-        <v>1.362535021849101</v>
+        <v>1.249669452067151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8985690160412705</v>
+        <v>0.9147337705649842</v>
       </c>
       <c r="O6">
-        <v>1.100000023845109</v>
+        <v>1.100000023845015</v>
       </c>
       <c r="P6">
-        <v>1.001074895724771</v>
+        <v>1.023214073088855</v>
       </c>
       <c r="Q6">
-        <v>30.90271553745785</v>
+        <v>29.78862743938152</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S6">
-        <v>140.3701275407487</v>
+        <v>140.8825101902908</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8966713734871343</v>
+        <v>0.9232445077050491</v>
       </c>
       <c r="O2">
-        <v>0.9999999999961731</v>
+        <v>0.9999999999956679</v>
       </c>
       <c r="P2">
-        <v>0.9438408768220407</v>
+        <v>0.9793278788311902</v>
       </c>
       <c r="Q2">
-        <v>30.61107002287189</v>
+        <v>28.93267399695182</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>144.8484486356858</v>
+        <v>145.5955044932402</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4985008017277145</v>
+        <v>0.6409206710249709</v>
       </c>
       <c r="O3">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P3">
-        <v>0.8458030579082587</v>
+        <v>0.9774974445581917</v>
       </c>
       <c r="Q3">
-        <v>32.32516518541934</v>
+        <v>20.80417267534873</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999638</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S3">
-        <v>119.8706392621925</v>
+        <v>127.8012940639816</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4373394470353294</v>
+        <v>0.4952592038844947</v>
       </c>
       <c r="O4">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P4">
-        <v>0.6516944633876428</v>
+        <v>0.8482828971208142</v>
       </c>
       <c r="Q4">
-        <v>61.20994934641837</v>
+        <v>32.05478928058601</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S4">
-        <v>108.8561569746339</v>
+        <v>119.6582798725382</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.152839560773523</v>
+        <v>3.152593079794917</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47.95286076627841</v>
+        <v>36.40300926529893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843939</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088273</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851245</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088117</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.500000000018031</v>
+        <v>0.3829072101097303</v>
       </c>
       <c r="O5">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P5">
-        <v>0.4999999999834786</v>
+        <v>0.7419571234708159</v>
       </c>
       <c r="Q5">
-        <v>89.99999999549728</v>
+        <v>51.11522086353512</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999662</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S5">
-        <v>90.00000000449491</v>
+        <v>108.9032302300217</v>
       </c>
       <c r="T5">
-        <v>4.152839560773522</v>
+        <v>3.152593079794918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4373394470552117</v>
+        <v>0.4952592038989196</v>
       </c>
       <c r="O6">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P6">
-        <v>0.6516944633797506</v>
+        <v>0.8482828971130237</v>
       </c>
       <c r="Q6">
-        <v>61.20994934544287</v>
+        <v>32.05478928141813</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999702</v>
       </c>
       <c r="S6">
-        <v>108.8561569763667</v>
+        <v>119.6582798734912</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8966713734871343</v>
+        <v>0.9232445077050491</v>
       </c>
       <c r="O2">
-        <v>0.9999999999961731</v>
+        <v>0.9999999999956679</v>
       </c>
       <c r="P2">
-        <v>0.9438408768220407</v>
+        <v>0.9793278788311902</v>
       </c>
       <c r="Q2">
-        <v>30.61107002287189</v>
+        <v>28.93267399695182</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>144.8484486356858</v>
+        <v>145.5955044932402</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4985008017277145</v>
+        <v>0.6409206710249709</v>
       </c>
       <c r="O3">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P3">
-        <v>0.8458030579082587</v>
+        <v>0.9774974445581917</v>
       </c>
       <c r="Q3">
-        <v>32.32516518541934</v>
+        <v>20.80417267534873</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999638</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S3">
-        <v>119.8706392621925</v>
+        <v>127.8012940639816</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4373394470353294</v>
+        <v>0.4952592038844947</v>
       </c>
       <c r="O4">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P4">
-        <v>0.6516944633876428</v>
+        <v>0.8482828971208142</v>
       </c>
       <c r="Q4">
-        <v>61.20994934641837</v>
+        <v>32.05478928058601</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S4">
-        <v>108.8561569746339</v>
+        <v>119.6582798725382</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.152839560773523</v>
+        <v>3.152593079794917</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>47.95286076627841</v>
+        <v>36.40300926529893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843939</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088273</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851245</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088117</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.500000000018031</v>
+        <v>0.3829072101097303</v>
       </c>
       <c r="O5">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P5">
-        <v>0.4999999999834786</v>
+        <v>0.7419571234708159</v>
       </c>
       <c r="Q5">
-        <v>89.99999999549728</v>
+        <v>51.11522086353512</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999662</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S5">
-        <v>90.00000000449491</v>
+        <v>108.9032302300217</v>
       </c>
       <c r="T5">
-        <v>4.152839560773522</v>
+        <v>3.152593079794918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4373394470552117</v>
+        <v>0.4952592038989196</v>
       </c>
       <c r="O6">
-        <v>1.00000000000151</v>
+        <v>0.9999999999995569</v>
       </c>
       <c r="P6">
-        <v>0.6516944633797506</v>
+        <v>0.8482828971130237</v>
       </c>
       <c r="Q6">
-        <v>61.20994934544287</v>
+        <v>32.05478928141813</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999702</v>
       </c>
       <c r="S6">
-        <v>108.8561569763667</v>
+        <v>119.6582798734912</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9706292519998697</v>
+        <v>0.9735516422626378</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985837</v>
+        <v>0.9999999999985738</v>
       </c>
       <c r="P2">
-        <v>0.9879862005556695</v>
+        <v>0.9913079823593816</v>
       </c>
       <c r="Q2">
-        <v>29.84250695526115</v>
+        <v>29.71362209436107</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4471765695397</v>
+        <v>148.5347440278592</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8589794972912008</v>
+        <v>0.873892537907147</v>
       </c>
       <c r="O3">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P3">
-        <v>0.9561489247927523</v>
+        <v>0.9708541152627017</v>
       </c>
       <c r="Q3">
-        <v>28.64757030494522</v>
+        <v>28.02209569663948</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S3">
-        <v>142.0362307983303</v>
+        <v>142.6177202263579</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8140158862310342</v>
+        <v>0.8280453571236862</v>
       </c>
       <c r="O4">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P4">
-        <v>0.8919303698408605</v>
+        <v>0.9142439859556691</v>
       </c>
       <c r="Q4">
-        <v>32.18097742317094</v>
+        <v>30.87364047352508</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>140.5730987250092</v>
+        <v>141.021036736605</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.179813358163809</v>
+        <v>1.07616895405151</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.62331119858783</v>
+        <v>12.42652870630314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843939</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088273</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851245</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088117</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.7725012617988067</v>
+        <v>0.7844858086838522</v>
       </c>
       <c r="O5">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P5">
-        <v>0.8283833974071204</v>
+        <v>0.8584371517682524</v>
       </c>
       <c r="Q5">
-        <v>36.11052438552571</v>
+        <v>34.0504880785452</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S5">
-        <v>138.884239796956</v>
+        <v>139.2151937028419</v>
       </c>
       <c r="T5">
-        <v>1.179813358163808</v>
+        <v>1.07616895405151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8140158862367382</v>
+        <v>0.8280453571286523</v>
       </c>
       <c r="O6">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P6">
-        <v>0.8919303698407993</v>
+        <v>0.9142439859551554</v>
       </c>
       <c r="Q6">
-        <v>32.18097742330896</v>
+        <v>30.87364047368899</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S6">
-        <v>140.5730987253966</v>
+        <v>141.0210367369483</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9706292519998697</v>
+        <v>0.9735516422626378</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985837</v>
+        <v>0.9999999999985738</v>
       </c>
       <c r="P2">
-        <v>0.9879862005556695</v>
+        <v>0.9913079823593816</v>
       </c>
       <c r="Q2">
-        <v>29.84250695526115</v>
+        <v>29.71362209436107</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4471765695397</v>
+        <v>148.5347440278592</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8589794972912008</v>
+        <v>0.873892537907147</v>
       </c>
       <c r="O3">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P3">
-        <v>0.9561489247927523</v>
+        <v>0.9708541152627017</v>
       </c>
       <c r="Q3">
-        <v>28.64757030494522</v>
+        <v>28.02209569663948</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999965</v>
       </c>
       <c r="S3">
-        <v>142.0362307983303</v>
+        <v>142.6177202263579</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8140158862310342</v>
+        <v>0.8280453571236862</v>
       </c>
       <c r="O4">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P4">
-        <v>0.8919303698408605</v>
+        <v>0.9142439859556691</v>
       </c>
       <c r="Q4">
-        <v>32.18097742317094</v>
+        <v>30.87364047352508</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S4">
-        <v>140.5730987250092</v>
+        <v>141.021036736605</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.179813358163809</v>
+        <v>1.07616895405151</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.62331119858783</v>
+        <v>12.42652870630314</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851824</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515843939</v>
       </c>
       <c r="J5">
-        <v>2.112151900892756</v>
+        <v>2.112151900892773</v>
       </c>
       <c r="K5">
-        <v>3.596397547088273</v>
+        <v>3.596397547088258</v>
       </c>
       <c r="L5">
-        <v>2.112151900851245</v>
+        <v>2.112151900851263</v>
       </c>
       <c r="M5">
-        <v>3.596397547088117</v>
+        <v>3.59639754708806</v>
       </c>
       <c r="N5">
-        <v>0.7725012617988067</v>
+        <v>0.7844858086838522</v>
       </c>
       <c r="O5">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P5">
-        <v>0.8283833974071204</v>
+        <v>0.8584371517682524</v>
       </c>
       <c r="Q5">
-        <v>36.11052438552571</v>
+        <v>34.0504880785452</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999649</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S5">
-        <v>138.884239796956</v>
+        <v>139.2151937028419</v>
       </c>
       <c r="T5">
-        <v>1.179813358163808</v>
+        <v>1.07616895405151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8140158862367382</v>
+        <v>0.8280453571286523</v>
       </c>
       <c r="O6">
-        <v>1.000000000000078</v>
+        <v>0.9999999999999163</v>
       </c>
       <c r="P6">
-        <v>0.8919303698407993</v>
+        <v>0.9142439859551554</v>
       </c>
       <c r="Q6">
-        <v>32.18097742330896</v>
+        <v>30.87364047368899</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S6">
-        <v>140.5730987253966</v>
+        <v>141.0210367369483</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9717494207164722</v>
+        <v>1.043957419069057</v>
       </c>
       <c r="O2">
-        <v>0.9717494206916383</v>
+        <v>0.9717494206890078</v>
       </c>
       <c r="P2">
-        <v>0.9717494207031515</v>
+        <v>1.054703759087794</v>
       </c>
       <c r="Q2">
-        <v>28.31770442398509</v>
+        <v>25.33764318554065</v>
       </c>
       <c r="R2">
-        <v>-91.6822955760716</v>
+        <v>-91.68229557615429</v>
       </c>
       <c r="S2">
-        <v>148.3177044252175</v>
+        <v>150.17452603105</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4711324626214042</v>
+        <v>0.9336746958205915</v>
       </c>
       <c r="O3">
-        <v>0.4711324625050278</v>
+        <v>0.4711324625064578</v>
       </c>
       <c r="P3">
-        <v>0.4711324625119801</v>
+        <v>0.8615214995757723</v>
       </c>
       <c r="Q3">
-        <v>6.820201507665587</v>
+        <v>0.3690627572250146</v>
       </c>
       <c r="R3">
-        <v>-113.1797984995244</v>
+        <v>-113.1797985003605</v>
       </c>
       <c r="S3">
-        <v>126.82020151632</v>
+        <v>150.2818130818</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2355662314151704</v>
+        <v>0.8238541990208768</v>
       </c>
       <c r="O4">
-        <v>0.2355662312552984</v>
+        <v>0.2355662312565802</v>
       </c>
       <c r="P4">
-        <v>0.2355662312918537</v>
+        <v>0.8010588002424505</v>
       </c>
       <c r="Q4">
-        <v>6.820201519128995</v>
+        <v>-9.387922932202166</v>
       </c>
       <c r="R4">
-        <v>-113.1797984930498</v>
+        <v>-113.1797984953029</v>
       </c>
       <c r="S4">
-        <v>126.8202015467077</v>
+        <v>154.0179562601592</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.990639311563642</v>
+        <v>4.710758729875486</v>
       </c>
       <c r="D5">
-        <v>5.990639311916996</v>
+        <v>2.064315240827369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.17394438298446</v>
+        <v>54.39515641561983</v>
       </c>
       <c r="G5">
-        <v>69.17394438706465</v>
+        <v>23.83665919967858</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.744546493151691</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.7445464931557606</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-21.65787784266292</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>158.3421221574315</v>
       </c>
       <c r="T5">
-        <v>10.37609165721696</v>
+        <v>4.125231032883956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2355662314192368</v>
+        <v>0.8238541990099232</v>
       </c>
       <c r="O6">
-        <v>0.2355662312593646</v>
+        <v>0.2355662312606458</v>
       </c>
       <c r="P6">
-        <v>0.2355662312959198</v>
+        <v>0.8010588002479352</v>
       </c>
       <c r="Q6">
-        <v>6.820201523695877</v>
+        <v>-9.387922931478348</v>
       </c>
       <c r="R6">
-        <v>-113.1797984884829</v>
+        <v>-113.1797984907355</v>
       </c>
       <c r="S6">
-        <v>126.8202015512746</v>
+        <v>154.0179562604241</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9717494207164722</v>
+        <v>1.043957419069057</v>
       </c>
       <c r="O2">
-        <v>0.9717494206916383</v>
+        <v>0.9717494206890078</v>
       </c>
       <c r="P2">
-        <v>0.9717494207031515</v>
+        <v>1.054703759087794</v>
       </c>
       <c r="Q2">
-        <v>28.31770442398509</v>
+        <v>25.33764318554065</v>
       </c>
       <c r="R2">
-        <v>-91.6822955760716</v>
+        <v>-91.68229557615429</v>
       </c>
       <c r="S2">
-        <v>148.3177044252175</v>
+        <v>150.17452603105</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4711324626214042</v>
+        <v>0.9336746958205915</v>
       </c>
       <c r="O3">
-        <v>0.4711324625050278</v>
+        <v>0.4711324625064578</v>
       </c>
       <c r="P3">
-        <v>0.4711324625119801</v>
+        <v>0.8615214995757723</v>
       </c>
       <c r="Q3">
-        <v>6.820201507665587</v>
+        <v>0.3690627572250146</v>
       </c>
       <c r="R3">
-        <v>-113.1797984995244</v>
+        <v>-113.1797985003605</v>
       </c>
       <c r="S3">
-        <v>126.82020151632</v>
+        <v>150.2818130818</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2355662314151704</v>
+        <v>0.8238541990208768</v>
       </c>
       <c r="O4">
-        <v>0.2355662312552984</v>
+        <v>0.2355662312565802</v>
       </c>
       <c r="P4">
-        <v>0.2355662312918537</v>
+        <v>0.8010588002424505</v>
       </c>
       <c r="Q4">
-        <v>6.820201519128995</v>
+        <v>-9.387922932202166</v>
       </c>
       <c r="R4">
-        <v>-113.1797984930498</v>
+        <v>-113.1797984953029</v>
       </c>
       <c r="S4">
-        <v>126.8202015467077</v>
+        <v>154.0179562601592</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.990639311563642</v>
+        <v>4.710758729875486</v>
       </c>
       <c r="D5">
-        <v>5.990639311916996</v>
+        <v>2.064315240827369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.17394438298446</v>
+        <v>54.39515641561983</v>
       </c>
       <c r="G5">
-        <v>69.17394438706465</v>
+        <v>23.83665919967858</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.744546493151691</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.7445464931557606</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-21.65787784266292</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>158.3421221574315</v>
       </c>
       <c r="T5">
-        <v>10.37609165721696</v>
+        <v>4.125231032883956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2355662314192368</v>
+        <v>0.8238541990099232</v>
       </c>
       <c r="O6">
-        <v>0.2355662312593646</v>
+        <v>0.2355662312606458</v>
       </c>
       <c r="P6">
-        <v>0.2355662312959198</v>
+        <v>0.8010588002479352</v>
       </c>
       <c r="Q6">
-        <v>6.820201523695877</v>
+        <v>-9.387922931478348</v>
       </c>
       <c r="R6">
-        <v>-113.1797984884829</v>
+        <v>-113.1797984907355</v>
       </c>
       <c r="S6">
-        <v>126.8202015512746</v>
+        <v>154.0179562604241</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.083364624541031</v>
+        <v>1.086962251262799</v>
       </c>
       <c r="O2">
-        <v>1.060344120151721</v>
+        <v>1.060344120151575</v>
       </c>
       <c r="P2">
-        <v>1.07286868819599</v>
+        <v>1.07641351777147</v>
       </c>
       <c r="Q2">
-        <v>28.69339966247155</v>
+        <v>28.58961935613707</v>
       </c>
       <c r="R2">
-        <v>-91.25541415425153</v>
+        <v>-91.25541415425265</v>
       </c>
       <c r="S2">
-        <v>149.7834652714462</v>
+        <v>149.8932571566178</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02696724022692</v>
+        <v>1.047293689134086</v>
       </c>
       <c r="O3">
-        <v>0.906944960556182</v>
+        <v>0.9069449605560483</v>
       </c>
       <c r="P3">
-        <v>0.9592239605453444</v>
+        <v>0.9769919626059229</v>
       </c>
       <c r="Q3">
-        <v>22.48718385348399</v>
+        <v>22.09480295772719</v>
       </c>
       <c r="R3">
-        <v>-98.42976487994281</v>
+        <v>-98.42976487994963</v>
       </c>
       <c r="S3">
-        <v>148.2781986076681</v>
+        <v>148.9979974194034</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9797776769599629</v>
+        <v>1.004354195299399</v>
       </c>
       <c r="O4">
-        <v>0.8245251459002872</v>
+        <v>0.8245251459001597</v>
       </c>
       <c r="P4">
-        <v>0.9151845495896114</v>
+        <v>0.9405163584314244</v>
       </c>
       <c r="Q4">
-        <v>21.0454681054267</v>
+        <v>20.3160461919585</v>
       </c>
       <c r="R4">
-        <v>-98.72515785568673</v>
+        <v>-98.72515785569692</v>
       </c>
       <c r="S4">
-        <v>149.5983843367677</v>
+        <v>150.2799280061281</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.360942021579818</v>
+        <v>1.35941818916962</v>
       </c>
       <c r="D5">
-        <v>1.247282332484529</v>
+        <v>1.076066595428779</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.71480485021163</v>
+        <v>15.69720914916708</v>
       </c>
       <c r="G5">
-        <v>14.40237580830814</v>
+        <v>12.42534677073539</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.9332709653892599</v>
+        <v>0.962468505025889</v>
       </c>
       <c r="O5">
-        <v>0.7421321146326334</v>
+        <v>0.7421321146325131</v>
       </c>
       <c r="P5">
-        <v>0.8716799621214584</v>
+        <v>0.9045493969528189</v>
       </c>
       <c r="Q5">
-        <v>19.45897516222088</v>
+        <v>18.3804651084838</v>
       </c>
       <c r="R5">
-        <v>-99.08615255177385</v>
+        <v>-99.0861525517882</v>
       </c>
       <c r="S5">
-        <v>151.0511852297262</v>
+        <v>151.6645437000905</v>
       </c>
       <c r="T5">
-        <v>1.552311889249</v>
+        <v>1.26719913870329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9797776769587123</v>
+        <v>1.004354195297539</v>
       </c>
       <c r="O6">
-        <v>0.8245251459013367</v>
+        <v>0.8245251459012095</v>
       </c>
       <c r="P6">
-        <v>0.9151845495921287</v>
+        <v>0.9405163584337917</v>
       </c>
       <c r="Q6">
-        <v>21.04546810567122</v>
+        <v>20.31604619218349</v>
       </c>
       <c r="R6">
-        <v>-98.72515785522468</v>
+        <v>-98.72515785523484</v>
       </c>
       <c r="S6">
-        <v>149.5983843369623</v>
+        <v>150.2799280062811</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.083364624541031</v>
+        <v>1.086962251262799</v>
       </c>
       <c r="O2">
-        <v>1.060344120151721</v>
+        <v>1.060344120151575</v>
       </c>
       <c r="P2">
-        <v>1.07286868819599</v>
+        <v>1.07641351777147</v>
       </c>
       <c r="Q2">
-        <v>28.69339966247155</v>
+        <v>28.58961935613707</v>
       </c>
       <c r="R2">
-        <v>-91.25541415425153</v>
+        <v>-91.25541415425265</v>
       </c>
       <c r="S2">
-        <v>149.7834652714462</v>
+        <v>149.8932571566178</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.02696724022692</v>
+        <v>1.047293689134086</v>
       </c>
       <c r="O3">
-        <v>0.906944960556182</v>
+        <v>0.9069449605560483</v>
       </c>
       <c r="P3">
-        <v>0.9592239605453444</v>
+        <v>0.9769919626059229</v>
       </c>
       <c r="Q3">
-        <v>22.48718385348399</v>
+        <v>22.09480295772719</v>
       </c>
       <c r="R3">
-        <v>-98.42976487994281</v>
+        <v>-98.42976487994963</v>
       </c>
       <c r="S3">
-        <v>148.2781986076681</v>
+        <v>148.9979974194034</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9797776769599629</v>
+        <v>1.004354195299399</v>
       </c>
       <c r="O4">
-        <v>0.8245251459002872</v>
+        <v>0.8245251459001597</v>
       </c>
       <c r="P4">
-        <v>0.9151845495896114</v>
+        <v>0.9405163584314244</v>
       </c>
       <c r="Q4">
-        <v>21.0454681054267</v>
+        <v>20.3160461919585</v>
       </c>
       <c r="R4">
-        <v>-98.72515785568673</v>
+        <v>-98.72515785569692</v>
       </c>
       <c r="S4">
-        <v>149.5983843367677</v>
+        <v>150.2799280061281</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.360942021579818</v>
+        <v>1.35941818916962</v>
       </c>
       <c r="D5">
-        <v>1.247282332484529</v>
+        <v>1.076066595428779</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.71480485021163</v>
+        <v>15.69720914916708</v>
       </c>
       <c r="G5">
-        <v>14.40237580830814</v>
+        <v>12.42534677073539</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.9332709653892599</v>
+        <v>0.962468505025889</v>
       </c>
       <c r="O5">
-        <v>0.7421321146326334</v>
+        <v>0.7421321146325131</v>
       </c>
       <c r="P5">
-        <v>0.8716799621214584</v>
+        <v>0.9045493969528189</v>
       </c>
       <c r="Q5">
-        <v>19.45897516222088</v>
+        <v>18.3804651084838</v>
       </c>
       <c r="R5">
-        <v>-99.08615255177385</v>
+        <v>-99.0861525517882</v>
       </c>
       <c r="S5">
-        <v>151.0511852297262</v>
+        <v>151.6645437000905</v>
       </c>
       <c r="T5">
-        <v>1.552311889249</v>
+        <v>1.26719913870329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9797776769587123</v>
+        <v>1.004354195297539</v>
       </c>
       <c r="O6">
-        <v>0.8245251459013367</v>
+        <v>0.8245251459012095</v>
       </c>
       <c r="P6">
-        <v>0.9151845495921287</v>
+        <v>0.9405163584337917</v>
       </c>
       <c r="Q6">
-        <v>21.04546810567122</v>
+        <v>20.31604619218349</v>
       </c>
       <c r="R6">
-        <v>-98.72515785522468</v>
+        <v>-98.72515785523484</v>
       </c>
       <c r="S6">
-        <v>149.5983843369623</v>
+        <v>150.2799280062811</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.892507760131139</v>
+        <v>0.9644535993515083</v>
       </c>
       <c r="O2">
-        <v>0.8925077601136238</v>
+        <v>0.8925077601143854</v>
       </c>
       <c r="P2">
-        <v>0.8925077601141856</v>
+        <v>0.9535362759115215</v>
       </c>
       <c r="Q2">
-        <v>26.78057305214607</v>
+        <v>25.13108154581319</v>
       </c>
       <c r="R2">
-        <v>-93.21942694845659</v>
+        <v>-93.21942694843106</v>
       </c>
       <c r="S2">
-        <v>146.7805730528112</v>
+        <v>149.6708070974638</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5561090193964653</v>
+        <v>0.925488200205385</v>
       </c>
       <c r="O3">
-        <v>0.5561090193441952</v>
+        <v>0.5561090193398728</v>
       </c>
       <c r="P3">
-        <v>0.5561090193002604</v>
+        <v>0.7777352971008309</v>
       </c>
       <c r="Q3">
-        <v>1.006342769759731</v>
+        <v>4.025736121509772</v>
       </c>
       <c r="R3">
-        <v>-118.9936572385715</v>
+        <v>-118.9936572386236</v>
       </c>
       <c r="S3">
-        <v>121.0063427702507</v>
+        <v>147.1881963083199</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.278054509784338</v>
+        <v>0.7674136121425427</v>
       </c>
       <c r="O4">
-        <v>0.2780545096858936</v>
+        <v>0.2780545096813665</v>
       </c>
       <c r="P4">
-        <v>0.2780545096647433</v>
+        <v>0.7039562458813875</v>
       </c>
       <c r="Q4">
-        <v>1.006342783046062</v>
+        <v>-5.418801901052359</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336933</v>
+        <v>-118.9936572335909</v>
       </c>
       <c r="S4">
-        <v>121.0063427922368</v>
+        <v>153.3567747227124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.795286076026513</v>
+        <v>3.627458725346475</v>
       </c>
       <c r="D5">
-        <v>4.795286076429949</v>
+        <v>1.872049012502106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37119413670344</v>
+        <v>41.88628543106088</v>
       </c>
       <c r="G5">
-        <v>55.3711941413619</v>
+        <v>21.61656002608528</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6401586597745322</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6401586597763608</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-19.14201533023189</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>160.8579846692029</v>
       </c>
       <c r="T5">
-        <v>8.305679120511529</v>
+        <v>3.214230866008043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2780545097928542</v>
+        <v>0.7674136121344403</v>
       </c>
       <c r="O6">
-        <v>0.2780545096944102</v>
+        <v>0.2780545096898818</v>
       </c>
       <c r="P6">
-        <v>0.2780545096732597</v>
+        <v>0.7039562458904166</v>
       </c>
       <c r="Q6">
-        <v>1.006342787783074</v>
+        <v>-5.418801899806804</v>
       </c>
       <c r="R6">
-        <v>-118.9936572289563</v>
+        <v>-118.9936572288536</v>
       </c>
       <c r="S6">
-        <v>121.0063427969737</v>
+        <v>153.3567747229701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.892507760131139</v>
+        <v>0.9644535993515083</v>
       </c>
       <c r="O2">
-        <v>0.8925077601136238</v>
+        <v>0.8925077601143854</v>
       </c>
       <c r="P2">
-        <v>0.8925077601141856</v>
+        <v>0.9535362759115215</v>
       </c>
       <c r="Q2">
-        <v>26.78057305214607</v>
+        <v>25.13108154581319</v>
       </c>
       <c r="R2">
-        <v>-93.21942694845659</v>
+        <v>-93.21942694843106</v>
       </c>
       <c r="S2">
-        <v>146.7805730528112</v>
+        <v>149.6708070974638</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5561090193964653</v>
+        <v>0.925488200205385</v>
       </c>
       <c r="O3">
-        <v>0.5561090193441952</v>
+        <v>0.5561090193398728</v>
       </c>
       <c r="P3">
-        <v>0.5561090193002604</v>
+        <v>0.7777352971008309</v>
       </c>
       <c r="Q3">
-        <v>1.006342769759731</v>
+        <v>4.025736121509772</v>
       </c>
       <c r="R3">
-        <v>-118.9936572385715</v>
+        <v>-118.9936572386236</v>
       </c>
       <c r="S3">
-        <v>121.0063427702507</v>
+        <v>147.1881963083199</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.278054509784338</v>
+        <v>0.7674136121425427</v>
       </c>
       <c r="O4">
-        <v>0.2780545096858936</v>
+        <v>0.2780545096813665</v>
       </c>
       <c r="P4">
-        <v>0.2780545096647433</v>
+        <v>0.7039562458813875</v>
       </c>
       <c r="Q4">
-        <v>1.006342783046062</v>
+        <v>-5.418801901052359</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336933</v>
+        <v>-118.9936572335909</v>
       </c>
       <c r="S4">
-        <v>121.0063427922368</v>
+        <v>153.3567747227124</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.795286076026513</v>
+        <v>3.627458725346475</v>
       </c>
       <c r="D5">
-        <v>4.795286076429949</v>
+        <v>1.872049012502106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37119413670344</v>
+        <v>41.88628543106088</v>
       </c>
       <c r="G5">
-        <v>55.3711941413619</v>
+        <v>21.61656002608528</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.6401586597745322</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6401586597763608</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-19.14201533023189</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>160.8579846692029</v>
       </c>
       <c r="T5">
-        <v>8.305679120511529</v>
+        <v>3.214230866008043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2780545097928542</v>
+        <v>0.7674136121344403</v>
       </c>
       <c r="O6">
-        <v>0.2780545096944102</v>
+        <v>0.2780545096898818</v>
       </c>
       <c r="P6">
-        <v>0.2780545096732597</v>
+        <v>0.7039562458904166</v>
       </c>
       <c r="Q6">
-        <v>1.006342787783074</v>
+        <v>-5.418801899806804</v>
       </c>
       <c r="R6">
-        <v>-118.9936572289563</v>
+        <v>-118.9936572288536</v>
       </c>
       <c r="S6">
-        <v>121.0063427969737</v>
+        <v>153.3567747229701</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9848135972653207</v>
+        <v>0.988697256227843</v>
       </c>
       <c r="O2">
-        <v>0.9631240430153676</v>
+        <v>0.9631240430153983</v>
       </c>
       <c r="P2">
-        <v>0.9731770533387011</v>
+        <v>0.9768711885282529</v>
       </c>
       <c r="Q2">
-        <v>28.57930099137726</v>
+        <v>28.46509628202438</v>
       </c>
       <c r="R2">
-        <v>-91.4867939292817</v>
+        <v>-91.48679392928123</v>
       </c>
       <c r="S2">
-        <v>149.6525806173946</v>
+        <v>149.7879238270287</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9392366191814754</v>
+        <v>0.9593010167586655</v>
       </c>
       <c r="O3">
-        <v>0.83671322835439</v>
+        <v>0.8367132283541823</v>
       </c>
       <c r="P3">
-        <v>0.8725070313569296</v>
+        <v>0.8894282304646062</v>
       </c>
       <c r="Q3">
-        <v>22.54465939632457</v>
+        <v>22.15790841678158</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053312</v>
+        <v>-98.94474932053305</v>
       </c>
       <c r="S3">
-        <v>147.6840719044376</v>
+        <v>148.4998259646085</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8735836043520084</v>
+        <v>0.8966918657639666</v>
       </c>
       <c r="O4">
-        <v>0.7348977271740664</v>
+        <v>0.7348977271738604</v>
       </c>
       <c r="P4">
-        <v>0.8239429539344025</v>
+        <v>0.850734810690971</v>
       </c>
       <c r="Q4">
-        <v>21.67842209583326</v>
+        <v>20.664711148693</v>
       </c>
       <c r="R4">
-        <v>-97.41604264394392</v>
+        <v>-97.41604264394174</v>
       </c>
       <c r="S4">
-        <v>150.4742357052635</v>
+        <v>151.0104256681842</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.156611714483269</v>
+        <v>1.157414560019868</v>
       </c>
       <c r="D5">
-        <v>1.099273646105932</v>
+        <v>0.9366541568886717</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.35540169409581</v>
+        <v>13.36467215582926</v>
       </c>
       <c r="G5">
-        <v>12.69331870984643</v>
+        <v>10.81555059234513</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
-        <v>0.8081626831870902</v>
+        <v>0.8347828328760215</v>
       </c>
       <c r="O5">
-        <v>0.6337732350779754</v>
+        <v>0.6337732350777732</v>
       </c>
       <c r="P5">
-        <v>0.7775740360722466</v>
+        <v>0.8138282470136287</v>
       </c>
       <c r="Q5">
-        <v>20.67167842680775</v>
+        <v>18.94872274878327</v>
       </c>
       <c r="R5">
-        <v>-95.39765209812738</v>
+        <v>-95.39765209812231</v>
       </c>
       <c r="S5">
-        <v>153.6053679382086</v>
+        <v>153.7544165725772</v>
       </c>
       <c r="T5">
-        <v>1.370751000813158</v>
+        <v>1.104767323353565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8735836043528421</v>
+        <v>0.8966918657638064</v>
       </c>
       <c r="O6">
-        <v>0.7348977271790212</v>
+        <v>0.7348977271788151</v>
       </c>
       <c r="P6">
-        <v>0.8239429539393698</v>
+        <v>0.8507348106953506</v>
       </c>
       <c r="Q6">
-        <v>21.6784220962172</v>
+        <v>20.66471114907097</v>
       </c>
       <c r="R6">
-        <v>-97.41604264334286</v>
+        <v>-97.41604264334065</v>
       </c>
       <c r="S6">
-        <v>150.4742357054463</v>
+        <v>151.0104256683145</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9848135972653207</v>
+        <v>0.988697256227843</v>
       </c>
       <c r="O2">
-        <v>0.9631240430153676</v>
+        <v>0.9631240430153983</v>
       </c>
       <c r="P2">
-        <v>0.9731770533387011</v>
+        <v>0.9768711885282529</v>
       </c>
       <c r="Q2">
-        <v>28.57930099137726</v>
+        <v>28.46509628202438</v>
       </c>
       <c r="R2">
-        <v>-91.4867939292817</v>
+        <v>-91.48679392928123</v>
       </c>
       <c r="S2">
-        <v>149.6525806173946</v>
+        <v>149.7879238270287</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9392366191814754</v>
+        <v>0.9593010167586655</v>
       </c>
       <c r="O3">
-        <v>0.83671322835439</v>
+        <v>0.8367132283541823</v>
       </c>
       <c r="P3">
-        <v>0.8725070313569296</v>
+        <v>0.8894282304646062</v>
       </c>
       <c r="Q3">
-        <v>22.54465939632457</v>
+        <v>22.15790841678158</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053312</v>
+        <v>-98.94474932053305</v>
       </c>
       <c r="S3">
-        <v>147.6840719044376</v>
+        <v>148.4998259646085</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8735836043520084</v>
+        <v>0.8966918657639666</v>
       </c>
       <c r="O4">
-        <v>0.7348977271740664</v>
+        <v>0.7348977271738604</v>
       </c>
       <c r="P4">
-        <v>0.8239429539344025</v>
+        <v>0.850734810690971</v>
       </c>
       <c r="Q4">
-        <v>21.67842209583326</v>
+        <v>20.664711148693</v>
       </c>
       <c r="R4">
-        <v>-97.41604264394392</v>
+        <v>-97.41604264394174</v>
       </c>
       <c r="S4">
-        <v>150.4742357052635</v>
+        <v>151.0104256681842</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.156611714483269</v>
+        <v>1.157414560019868</v>
       </c>
       <c r="D5">
-        <v>1.099273646105932</v>
+        <v>0.9366541568886717</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.35540169409581</v>
+        <v>13.36467215582926</v>
       </c>
       <c r="G5">
-        <v>12.69331870984643</v>
+        <v>10.81555059234513</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.981622317851732</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1148156515846882</v>
       </c>
       <c r="J5">
-        <v>2.112151900864169</v>
+        <v>2.112151900864149</v>
       </c>
       <c r="K5">
-        <v>3.596397547110922</v>
+        <v>3.596397547110914</v>
       </c>
       <c r="L5">
-        <v>2.112151900851107</v>
+        <v>2.112151900851147</v>
       </c>
       <c r="M5">
-        <v>3.596397547088177</v>
+        <v>3.596397547088221</v>
       </c>
       <c r="N5">
-        <v>0.8081626831870902</v>
+        <v>0.8347828328760215</v>
       </c>
       <c r="O5">
-        <v>0.6337732350779754</v>
+        <v>0.6337732350777732</v>
       </c>
       <c r="P5">
-        <v>0.7775740360722466</v>
+        <v>0.8138282470136287</v>
       </c>
       <c r="Q5">
-        <v>20.67167842680775</v>
+        <v>18.94872274878327</v>
       </c>
       <c r="R5">
-        <v>-95.39765209812738</v>
+        <v>-95.39765209812231</v>
       </c>
       <c r="S5">
-        <v>153.6053679382086</v>
+        <v>153.7544165725772</v>
       </c>
       <c r="T5">
-        <v>1.370751000813158</v>
+        <v>1.104767323353565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8735836043528421</v>
+        <v>0.8966918657638064</v>
       </c>
       <c r="O6">
-        <v>0.7348977271790212</v>
+        <v>0.7348977271788151</v>
       </c>
       <c r="P6">
-        <v>0.8239429539393698</v>
+        <v>0.8507348106953506</v>
       </c>
       <c r="Q6">
-        <v>21.6784220962172</v>
+        <v>20.66471114907097</v>
       </c>
       <c r="R6">
-        <v>-97.41604264334286</v>
+        <v>-97.41604264334065</v>
       </c>
       <c r="S6">
-        <v>150.4742357054463</v>
+        <v>151.0104256683145</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014023</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045253</v>
+        <v>0.4711324625045256</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368239</v>
+        <v>0.8867526821368238</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174647</v>
+        <v>11.70358232174648</v>
       </c>
       <c r="R3">
         <v>-113.1797985005416</v>
@@ -10659,16 +10659,16 @@
         <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>0.235566231255748</v>
+        <v>0.2355662312557483</v>
       </c>
       <c r="P4">
         <v>0.9127115190423143</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751329</v>
+        <v>6.185827764751343</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957914</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -10682,49 +10682,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773958</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773958</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.602528040315767</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.227753749880372</v>
       </c>
       <c r="J5">
-        <v>1.147731927164245</v>
+        <v>1.147731927164234</v>
       </c>
       <c r="K5">
-        <v>3.488438701404532</v>
+        <v>3.488438701404527</v>
       </c>
       <c r="L5">
-        <v>1.147731927170999</v>
+        <v>1.147731927171048</v>
       </c>
       <c r="M5">
-        <v>3.488438701416129</v>
+        <v>3.488438701416174</v>
       </c>
       <c r="N5">
-        <v>0.952627964804328</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964806171</v>
+        <v>0.9526279648061706</v>
       </c>
       <c r="Q5">
-        <v>-1.467134350794419E-11</v>
+        <v>-1.466526418278949E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10777,16 +10777,16 @@
         <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>0.2355662312598143</v>
+        <v>0.2355662312598147</v>
       </c>
       <c r="P6">
-        <v>0.9127115190507492</v>
+        <v>0.9127115190507489</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114881</v>
+        <v>6.185827765114886</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912246</v>
+        <v>-113.1797984912245</v>
       </c>
       <c r="S6">
         <v>173.1869568167123</v>
